--- a/data/combined data/combined data - 2 tables/position_rank_jacob.xlsx
+++ b/data/combined data/combined data - 2 tables/position_rank_jacob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 2 tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8ABCB6-3E04-4CC8-A5D6-E43990E4F397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056132DE-4055-4AF6-8358-1ECBBA6A3415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="527">
   <si>
     <t>InsideGov</t>
   </si>
@@ -1607,16 +1607,13 @@
     <t>If: 건설건재공웝위원회 &lt;-- 건설부 + 건재공업부, then is 건설건재공웝위원회 Level 1 &amp; 건설부, 건재공업부 is Level 2? Or should we keep 건설부, 건재공업부 is Level 1 &amp; make 건설건재공웝위원회 = Level 0.5</t>
   </si>
   <si>
-    <t>건설건재공업성_x국</t>
-  </si>
-  <si>
-    <t>건재공업부_x국</t>
-  </si>
-  <si>
     <t>_X국</t>
   </si>
   <si>
     <t>X부_대외봉사국</t>
+  </si>
+  <si>
+    <t>_x국</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1691,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2009,13 +2006,14 @@
   <dimension ref="A1:J706"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H483" sqref="H483"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="9.08984375" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
+    <col min="4" max="4" width="53.7265625" customWidth="1"/>
     <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="7" max="7" width="12.90625" style="5"/>
     <col min="8" max="8" width="14.08984375" style="5" customWidth="1"/>
@@ -2643,12 +2641,12 @@
       <c r="G23" s="5">
         <v>3</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>514</v>
+      <c r="H23" s="5">
+        <v>2</v>
       </c>
       <c r="I23" s="5" t="str">
         <f>G23&amp;"."&amp;H23</f>
-        <v>3.?</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -2670,12 +2668,12 @@
       <c r="G24" s="5">
         <v>3</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>514</v>
+      <c r="H24" s="5">
+        <v>2</v>
       </c>
       <c r="I24" s="5" t="str">
         <f>G24&amp;"."&amp;H24</f>
-        <v>3.?</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -2697,12 +2695,12 @@
       <c r="G25" s="5">
         <v>3</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>514</v>
+      <c r="H25" s="5">
+        <v>2</v>
       </c>
       <c r="I25" s="5" t="str">
         <f>G25&amp;"."&amp;H25</f>
-        <v>3.?</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -2724,12 +2722,12 @@
       <c r="G26" s="5">
         <v>3</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>514</v>
+      <c r="H26" s="5">
+        <v>2</v>
       </c>
       <c r="I26" s="5" t="str">
         <f>G26&amp;"."&amp;H26</f>
-        <v>3.?</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -2751,12 +2749,12 @@
       <c r="G27" s="5">
         <v>3</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>514</v>
+      <c r="H27" s="5">
+        <v>2</v>
       </c>
       <c r="I27" s="5" t="str">
         <f>G27&amp;"."&amp;H27</f>
-        <v>3.?</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -2778,12 +2776,12 @@
       <c r="G28" s="5">
         <v>3</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>514</v>
+      <c r="H28" s="5">
+        <v>2</v>
       </c>
       <c r="I28" s="5" t="str">
         <f>G28&amp;"."&amp;H28</f>
-        <v>3.?</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -2805,12 +2803,12 @@
       <c r="G29" s="5">
         <v>3</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>514</v>
+      <c r="H29" s="5">
+        <v>2</v>
       </c>
       <c r="I29" s="5" t="str">
         <f>G29&amp;"."&amp;H29</f>
-        <v>3.?</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -2827,14 +2825,14 @@
         <v>169</v>
       </c>
       <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>514</v>
+        <v>3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2</v>
       </c>
       <c r="I30" s="5" t="str">
         <f>G30&amp;"."&amp;H30</f>
-        <v>0.?</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -2853,15 +2851,15 @@
       <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="5">
-        <v>1</v>
+      <c r="G31" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
       </c>
       <c r="I31" s="5" t="str">
         <f>G31&amp;"."&amp;H31</f>
-        <v>1.1</v>
+        <v>?.1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -2907,15 +2905,15 @@
       <c r="E33" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="5">
-        <v>1</v>
+      <c r="G33" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H33" s="5">
         <v>1</v>
       </c>
       <c r="I33" s="5" t="str">
         <f>G33&amp;"."&amp;H33</f>
-        <v>1.1</v>
+        <v>?.1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -2934,15 +2932,15 @@
       <c r="E34" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="5">
-        <v>1</v>
+      <c r="G34" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
       </c>
       <c r="I34" s="5" t="str">
         <f>G34&amp;"."&amp;H34</f>
-        <v>1.1</v>
+        <v>?.1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2988,15 +2986,15 @@
       <c r="E36" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="5">
-        <v>2</v>
+      <c r="G36" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
       </c>
       <c r="I36" s="5" t="str">
         <f>G36&amp;"."&amp;H36</f>
-        <v>2.1</v>
+        <v>?.1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -3015,15 +3013,15 @@
       <c r="E37" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="5">
-        <v>1</v>
+      <c r="G37" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
       </c>
       <c r="I37" s="5" t="str">
         <f>G37&amp;"."&amp;H37</f>
-        <v>1.1</v>
+        <v>?.1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -3042,15 +3040,15 @@
       <c r="E38" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="5">
-        <v>2</v>
+      <c r="G38" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H38" s="5">
         <v>1</v>
       </c>
       <c r="I38" s="5" t="str">
         <f>G38&amp;"."&amp;H38</f>
-        <v>2.1</v>
+        <v>?.1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -3069,15 +3067,15 @@
       <c r="E39" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="5">
-        <v>1</v>
+      <c r="G39" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
       </c>
       <c r="I39" s="5" t="str">
         <f>G39&amp;"."&amp;H39</f>
-        <v>1.1</v>
+        <v>?.1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -3093,15 +3091,15 @@
       <c r="E40" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="5">
-        <v>0</v>
+      <c r="G40" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
       </c>
       <c r="I40" s="5" t="str">
         <f>G40&amp;"."&amp;H40</f>
-        <v>0.1</v>
+        <v>?.1</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -3458,7 +3456,7 @@
         <v>2.1</v>
       </c>
       <c r="J53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
@@ -3541,6 +3539,9 @@
         <f>G56&amp;"."&amp;H56</f>
         <v>2.1</v>
       </c>
+      <c r="J56" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
@@ -3569,7 +3570,7 @@
         <v>?.1</v>
       </c>
       <c r="J57" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -3599,7 +3600,7 @@
         <v>?.1</v>
       </c>
       <c r="J58" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
@@ -3656,7 +3657,7 @@
         <v>?.1</v>
       </c>
       <c r="J60" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
@@ -3686,7 +3687,7 @@
         <v>?.1</v>
       </c>
       <c r="J61" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
@@ -3716,7 +3717,7 @@
         <v>?.1</v>
       </c>
       <c r="J62" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
@@ -3746,7 +3747,7 @@
         <v>?.1</v>
       </c>
       <c r="J63" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -3776,7 +3777,7 @@
         <v>?.1</v>
       </c>
       <c r="J64" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
@@ -3806,7 +3807,7 @@
         <v>?.1</v>
       </c>
       <c r="J65" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
@@ -3903,7 +3904,7 @@
       <c r="C69" t="s">
         <v>7</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>137</v>
       </c>
       <c r="E69" t="s">
@@ -3920,7 +3921,7 @@
         <v>?.1</v>
       </c>
       <c r="J69" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -8540,7 +8541,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>729</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>269</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>?.NA</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>404</v>
       </c>
@@ -8621,7 +8622,7 @@
         <v>?.?</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>1627</v>
       </c>
@@ -8648,7 +8649,7 @@
         <v>3.?</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>1644</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>3.?</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>690</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>3.?</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>1551</v>
       </c>
@@ -8729,7 +8730,7 @@
         <v>?.?</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>352</v>
       </c>
@@ -8755,8 +8756,11 @@
         <f>G248&amp;"."&amp;H248</f>
         <v>?.2</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J248" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>381</v>
       </c>
@@ -8783,7 +8787,7 @@
         <v>?.2</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>1529</v>
       </c>
@@ -8810,7 +8814,7 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>405</v>
       </c>
@@ -8837,7 +8841,7 @@
         <v>?.2</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>527</v>
       </c>
@@ -8864,7 +8868,7 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>559</v>
       </c>
@@ -8891,7 +8895,7 @@
         <v>?.2</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>1584</v>
       </c>
@@ -8918,7 +8922,7 @@
         <v>?.2</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>570</v>
       </c>
@@ -8945,7 +8949,7 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>1660</v>
       </c>
@@ -11126,7 +11130,7 @@
         <v>?.2</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>384</v>
       </c>
@@ -11153,7 +11157,7 @@
         <v>?.2</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>1540</v>
       </c>
@@ -11180,7 +11184,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>428</v>
       </c>
@@ -11207,7 +11211,7 @@
         <v>?.2</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>443</v>
       </c>
@@ -11234,7 +11238,7 @@
         <v>?.2</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>450</v>
       </c>
@@ -11261,7 +11265,7 @@
         <v>?.2</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>1547</v>
       </c>
@@ -11288,7 +11292,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>509</v>
       </c>
@@ -11315,7 +11319,7 @@
         <v>?.2</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>592</v>
       </c>
@@ -11342,7 +11346,7 @@
         <v>?.2</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>792</v>
       </c>
@@ -11369,7 +11373,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>1693</v>
       </c>
@@ -11396,7 +11400,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>1703</v>
       </c>
@@ -11423,7 +11427,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>1715</v>
       </c>
@@ -11450,7 +11454,7 @@
         <v>?.2</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>253</v>
       </c>
@@ -11477,7 +11481,7 @@
         <v>?.?</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>1459</v>
       </c>
@@ -11504,7 +11508,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>1473</v>
       </c>
@@ -11530,8 +11534,11 @@
         <f>G351&amp;"."&amp;H351</f>
         <v>?.1</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J351" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>282</v>
       </c>
@@ -13271,7 +13278,7 @@
         <v>?.1</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>345</v>
       </c>
@@ -13298,7 +13305,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>348</v>
       </c>
@@ -13325,7 +13332,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>349</v>
       </c>
@@ -13335,7 +13342,7 @@
       <c r="C419" t="s">
         <v>7</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D419" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E419" t="s">
@@ -13351,8 +13358,11 @@
         <f>G419&amp;"."&amp;H419</f>
         <v>1.1</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J419" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>378</v>
       </c>
@@ -13379,7 +13389,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>389</v>
       </c>
@@ -13406,7 +13416,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>391</v>
       </c>
@@ -13433,7 +13443,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>395</v>
       </c>
@@ -13460,7 +13470,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>396</v>
       </c>
@@ -13487,7 +13497,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>1533</v>
       </c>
@@ -13514,7 +13524,7 @@
         <v>1.?</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>398</v>
       </c>
@@ -13541,7 +13551,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>417</v>
       </c>
@@ -13568,7 +13578,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>419</v>
       </c>
@@ -13595,7 +13605,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>438</v>
       </c>
@@ -13622,7 +13632,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>485</v>
       </c>
@@ -13649,7 +13659,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>489</v>
       </c>
@@ -13676,7 +13686,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>498</v>
       </c>
@@ -19719,15 +19729,15 @@
       <c r="E655" t="s">
         <v>49</v>
       </c>
-      <c r="G655" s="5">
-        <v>1</v>
+      <c r="G655" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H655" s="5">
         <v>1</v>
       </c>
       <c r="I655" s="5" t="str">
         <f>G655&amp;"."&amp;H655</f>
-        <v>1.1</v>
+        <v>?.1</v>
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.35">
@@ -19746,15 +19756,15 @@
       <c r="E656" t="s">
         <v>49</v>
       </c>
-      <c r="G656" s="5">
-        <v>1</v>
+      <c r="G656" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="H656" s="5">
         <v>1</v>
       </c>
       <c r="I656" s="5" t="str">
         <f>G656&amp;"."&amp;H656</f>
-        <v>1.1</v>
+        <v>?.1</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.35">
@@ -21099,8 +21109,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J709">
-    <sortCondition ref="E2:E709"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J706">
+    <sortCondition ref="E2:E706"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/combined data/combined data - 2 tables/position_rank_jacob.xlsx
+++ b/data/combined data/combined data - 2 tables/position_rank_jacob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 2 tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056132DE-4055-4AF6-8358-1ECBBA6A3415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C7DE8C-BA62-49E3-AFF8-4B5A71158D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2006,13 +2006,15 @@
   <dimension ref="A1:J706"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1"/>
     <col min="4" max="4" width="53.7265625" customWidth="1"/>
     <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="7" max="7" width="12.90625" style="5"/>
@@ -2072,7 +2074,7 @@
         <v>514</v>
       </c>
       <c r="I2" s="5" t="str">
-        <f>G2&amp;"."&amp;H2</f>
+        <f t="shared" ref="I2:I65" si="0">G2&amp;"."&amp;H2</f>
         <v>3.?</v>
       </c>
     </row>
@@ -2099,7 +2101,7 @@
         <v>514</v>
       </c>
       <c r="I3" s="5" t="str">
-        <f>G3&amp;"."&amp;H3</f>
+        <f t="shared" si="0"/>
         <v>2.?</v>
       </c>
       <c r="J3" t="s">
@@ -2129,7 +2131,7 @@
         <v>514</v>
       </c>
       <c r="I4" s="5" t="str">
-        <f>G4&amp;"."&amp;H4</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2156,7 +2158,7 @@
         <v>514</v>
       </c>
       <c r="I5" s="5" t="str">
-        <f>G5&amp;"."&amp;H5</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2183,7 +2185,7 @@
         <v>514</v>
       </c>
       <c r="I6" s="5" t="str">
-        <f>G6&amp;"."&amp;H6</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2210,7 +2212,7 @@
         <v>514</v>
       </c>
       <c r="I7" s="5" t="str">
-        <f>G7&amp;"."&amp;H7</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2237,7 +2239,7 @@
         <v>514</v>
       </c>
       <c r="I8" s="5" t="str">
-        <f>G8&amp;"."&amp;H8</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2264,7 +2266,7 @@
         <v>514</v>
       </c>
       <c r="I9" s="5" t="str">
-        <f>G9&amp;"."&amp;H9</f>
+        <f t="shared" si="0"/>
         <v>1.?</v>
       </c>
       <c r="J9" t="s">
@@ -2294,7 +2296,7 @@
         <v>514</v>
       </c>
       <c r="I10" s="5" t="str">
-        <f>G10&amp;"."&amp;H10</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2321,7 +2323,7 @@
         <v>514</v>
       </c>
       <c r="I11" s="5" t="str">
-        <f>G11&amp;"."&amp;H11</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2348,7 +2350,7 @@
         <v>514</v>
       </c>
       <c r="I12" s="5" t="str">
-        <f>G12&amp;"."&amp;H12</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2375,7 +2377,7 @@
         <v>514</v>
       </c>
       <c r="I13" s="5" t="str">
-        <f>G13&amp;"."&amp;H13</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2402,7 +2404,7 @@
         <v>514</v>
       </c>
       <c r="I14" s="5" t="str">
-        <f>G14&amp;"."&amp;H14</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2429,7 +2431,7 @@
         <v>514</v>
       </c>
       <c r="I15" s="5" t="str">
-        <f>G15&amp;"."&amp;H15</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2456,7 +2458,7 @@
         <v>518</v>
       </c>
       <c r="I16" s="5" t="str">
-        <f>G16&amp;"."&amp;H16</f>
+        <f t="shared" si="0"/>
         <v>1.NA</v>
       </c>
     </row>
@@ -2483,7 +2485,7 @@
         <v>518</v>
       </c>
       <c r="I17" s="5" t="str">
-        <f>G17&amp;"."&amp;H17</f>
+        <f t="shared" si="0"/>
         <v>2.NA</v>
       </c>
     </row>
@@ -2510,7 +2512,7 @@
         <v>518</v>
       </c>
       <c r="I18" s="5" t="str">
-        <f>G18&amp;"."&amp;H18</f>
+        <f t="shared" si="0"/>
         <v>3.NA</v>
       </c>
     </row>
@@ -2537,7 +2539,7 @@
         <v>514</v>
       </c>
       <c r="I19" s="5" t="str">
-        <f>G19&amp;"."&amp;H19</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2564,7 +2566,7 @@
         <v>514</v>
       </c>
       <c r="I20" s="5" t="str">
-        <f>G20&amp;"."&amp;H20</f>
+        <f t="shared" si="0"/>
         <v>3.?</v>
       </c>
     </row>
@@ -2591,7 +2593,7 @@
         <v>514</v>
       </c>
       <c r="I21" s="5" t="str">
-        <f>G21&amp;"."&amp;H21</f>
+        <f t="shared" si="0"/>
         <v>1.?</v>
       </c>
     </row>
@@ -2618,7 +2620,7 @@
         <v>514</v>
       </c>
       <c r="I22" s="5" t="str">
-        <f>G22&amp;"."&amp;H22</f>
+        <f t="shared" si="0"/>
         <v>?.?</v>
       </c>
     </row>
@@ -2645,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="5" t="str">
-        <f>G23&amp;"."&amp;H23</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
@@ -2672,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="5" t="str">
-        <f>G24&amp;"."&amp;H24</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
@@ -2699,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="I25" s="5" t="str">
-        <f>G25&amp;"."&amp;H25</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
@@ -2726,7 +2728,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="5" t="str">
-        <f>G26&amp;"."&amp;H26</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
@@ -2753,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="5" t="str">
-        <f>G27&amp;"."&amp;H27</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
@@ -2780,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="5" t="str">
-        <f>G28&amp;"."&amp;H28</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
@@ -2807,7 +2809,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="5" t="str">
-        <f>G29&amp;"."&amp;H29</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
@@ -2831,7 +2833,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="5" t="str">
-        <f>G30&amp;"."&amp;H30</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
     </row>
@@ -2858,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="5" t="str">
-        <f>G31&amp;"."&amp;H31</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
     </row>
@@ -2885,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="5" t="str">
-        <f>G32&amp;"."&amp;H32</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
     </row>
@@ -2912,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="5" t="str">
-        <f>G33&amp;"."&amp;H33</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
     </row>
@@ -2939,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="5" t="str">
-        <f>G34&amp;"."&amp;H34</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
     </row>
@@ -2966,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="5" t="str">
-        <f>G35&amp;"."&amp;H35</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
     </row>
@@ -2993,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="5" t="str">
-        <f>G36&amp;"."&amp;H36</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
     </row>
@@ -3020,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="5" t="str">
-        <f>G37&amp;"."&amp;H37</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
     </row>
@@ -3047,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="5" t="str">
-        <f>G38&amp;"."&amp;H38</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
     </row>
@@ -3074,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="5" t="str">
-        <f>G39&amp;"."&amp;H39</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
     </row>
@@ -3098,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="5" t="str">
-        <f>G40&amp;"."&amp;H40</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
     </row>
@@ -3125,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="5" t="str">
-        <f>G41&amp;"."&amp;H41</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
     </row>
@@ -3152,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="I42" s="5" t="str">
-        <f>G42&amp;"."&amp;H42</f>
+        <f t="shared" si="0"/>
         <v>?.2</v>
       </c>
     </row>
@@ -3179,7 +3181,7 @@
         <v>518</v>
       </c>
       <c r="I43" s="5" t="str">
-        <f>G43&amp;"."&amp;H43</f>
+        <f t="shared" si="0"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -3206,7 +3208,7 @@
         <v>518</v>
       </c>
       <c r="I44" s="5" t="str">
-        <f>G44&amp;"."&amp;H44</f>
+        <f t="shared" si="0"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -3233,7 +3235,7 @@
         <v>518</v>
       </c>
       <c r="I45" s="5" t="str">
-        <f>G45&amp;"."&amp;H45</f>
+        <f t="shared" si="0"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -3260,7 +3262,7 @@
         <v>518</v>
       </c>
       <c r="I46" s="5" t="str">
-        <f>G46&amp;"."&amp;H46</f>
+        <f t="shared" si="0"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -3287,7 +3289,7 @@
         <v>518</v>
       </c>
       <c r="I47" s="5" t="str">
-        <f>G47&amp;"."&amp;H47</f>
+        <f t="shared" si="0"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -3314,7 +3316,7 @@
         <v>518</v>
       </c>
       <c r="I48" s="5" t="str">
-        <f>G48&amp;"."&amp;H48</f>
+        <f t="shared" si="0"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -3341,7 +3343,7 @@
         <v>518</v>
       </c>
       <c r="I49" s="5" t="str">
-        <f>G49&amp;"."&amp;H49</f>
+        <f t="shared" si="0"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -3368,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="5" t="str">
-        <f>G50&amp;"."&amp;H50</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
     </row>
@@ -3395,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="5" t="str">
-        <f>G51&amp;"."&amp;H51</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="J51" t="s">
@@ -3425,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="5" t="str">
-        <f>G52&amp;"."&amp;H52</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
     </row>
@@ -3452,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="5" t="str">
-        <f>G53&amp;"."&amp;H53</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="J53" t="s">
@@ -3482,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="5" t="str">
-        <f>G54&amp;"."&amp;H54</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
     </row>
@@ -3509,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="5" t="str">
-        <f>G55&amp;"."&amp;H55</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
     </row>
@@ -3536,7 +3538,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="5" t="str">
-        <f>G56&amp;"."&amp;H56</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
       <c r="J56" t="s">
@@ -3566,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="5" t="str">
-        <f>G57&amp;"."&amp;H57</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
       <c r="J57" t="s">
@@ -3596,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="5" t="str">
-        <f>G58&amp;"."&amp;H58</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
       <c r="J58" t="s">
@@ -3626,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="5" t="str">
-        <f>G59&amp;"."&amp;H59</f>
+        <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
     </row>
@@ -3653,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="5" t="str">
-        <f>G60&amp;"."&amp;H60</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
       <c r="J60" t="s">
@@ -3683,7 +3685,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="5" t="str">
-        <f>G61&amp;"."&amp;H61</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
       <c r="J61" t="s">
@@ -3713,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="5" t="str">
-        <f>G62&amp;"."&amp;H62</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
       <c r="J62" t="s">
@@ -3743,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="5" t="str">
-        <f>G63&amp;"."&amp;H63</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
       <c r="J63" t="s">
@@ -3773,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="5" t="str">
-        <f>G64&amp;"."&amp;H64</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
       <c r="J64" t="s">
@@ -3803,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="5" t="str">
-        <f>G65&amp;"."&amp;H65</f>
+        <f t="shared" si="0"/>
         <v>?.1</v>
       </c>
       <c r="J65" t="s">
@@ -3833,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="5" t="str">
-        <f>G66&amp;"."&amp;H66</f>
+        <f t="shared" ref="I66:I129" si="1">G66&amp;"."&amp;H66</f>
         <v>?.1</v>
       </c>
       <c r="J66" t="s">
@@ -3863,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="5" t="str">
-        <f>G67&amp;"."&amp;H67</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -3890,7 +3892,7 @@
         <v>1</v>
       </c>
       <c r="I68" s="5" t="str">
-        <f>G68&amp;"."&amp;H68</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -3917,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="5" t="str">
-        <f>G69&amp;"."&amp;H69</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
       <c r="J69" t="s">
@@ -3947,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="5" t="str">
-        <f>G70&amp;"."&amp;H70</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -3974,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="5" t="str">
-        <f>G71&amp;"."&amp;H71</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4001,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="5" t="str">
-        <f>G72&amp;"."&amp;H72</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4028,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="5" t="str">
-        <f>G73&amp;"."&amp;H73</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4055,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="5" t="str">
-        <f>G74&amp;"."&amp;H74</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4082,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="5" t="str">
-        <f>G75&amp;"."&amp;H75</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4109,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="5" t="str">
-        <f>G76&amp;"."&amp;H76</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4136,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="5" t="str">
-        <f>G77&amp;"."&amp;H77</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4163,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="5" t="str">
-        <f>G78&amp;"."&amp;H78</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4190,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="5" t="str">
-        <f>G79&amp;"."&amp;H79</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4217,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="5" t="str">
-        <f>G80&amp;"."&amp;H80</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4244,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="5" t="str">
-        <f>G81&amp;"."&amp;H81</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4271,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="5" t="str">
-        <f>G82&amp;"."&amp;H82</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4298,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="I83" s="5" t="str">
-        <f>G83&amp;"."&amp;H83</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4325,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="5" t="str">
-        <f>G84&amp;"."&amp;H84</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4352,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="5" t="str">
-        <f>G85&amp;"."&amp;H85</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4379,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="5" t="str">
-        <f>G86&amp;"."&amp;H86</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4406,7 +4408,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="5" t="str">
-        <f>G87&amp;"."&amp;H87</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4433,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="5" t="str">
-        <f>G88&amp;"."&amp;H88</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4460,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="I89" s="5" t="str">
-        <f>G89&amp;"."&amp;H89</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4487,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="5" t="str">
-        <f>G90&amp;"."&amp;H90</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4514,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="5" t="str">
-        <f>G91&amp;"."&amp;H91</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4541,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="5" t="str">
-        <f>G92&amp;"."&amp;H92</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4568,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="5" t="str">
-        <f>G93&amp;"."&amp;H93</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4595,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="5" t="str">
-        <f>G94&amp;"."&amp;H94</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4622,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="I95" s="5" t="str">
-        <f>G95&amp;"."&amp;H95</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4649,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="5" t="str">
-        <f>G96&amp;"."&amp;H96</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4676,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="I97" s="5" t="str">
-        <f>G97&amp;"."&amp;H97</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4703,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="I98" s="5" t="str">
-        <f>G98&amp;"."&amp;H98</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
       <c r="J98" t="s">
@@ -4733,7 +4735,7 @@
         <v>1</v>
       </c>
       <c r="I99" s="5" t="str">
-        <f>G99&amp;"."&amp;H99</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4760,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="5" t="str">
-        <f>G100&amp;"."&amp;H100</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4787,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="5" t="str">
-        <f>G101&amp;"."&amp;H101</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4814,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="I102" s="5" t="str">
-        <f>G102&amp;"."&amp;H102</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4841,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="5" t="str">
-        <f>G103&amp;"."&amp;H103</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4868,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="5" t="str">
-        <f>G104&amp;"."&amp;H104</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4895,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="5" t="str">
-        <f>G105&amp;"."&amp;H105</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4922,7 +4924,7 @@
         <v>1</v>
       </c>
       <c r="I106" s="5" t="str">
-        <f>G106&amp;"."&amp;H106</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4949,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="I107" s="5" t="str">
-        <f>G107&amp;"."&amp;H107</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -4976,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="I108" s="5" t="str">
-        <f>G108&amp;"."&amp;H108</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -5003,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="5" t="str">
-        <f>G109&amp;"."&amp;H109</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -5030,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="I110" s="5" t="str">
-        <f>G110&amp;"."&amp;H110</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -5057,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="5" t="str">
-        <f>G111&amp;"."&amp;H111</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -5084,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="I112" s="5" t="str">
-        <f>G112&amp;"."&amp;H112</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -5111,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="5" t="str">
-        <f>G113&amp;"."&amp;H113</f>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
     </row>
@@ -5138,7 +5140,7 @@
         <v>1</v>
       </c>
       <c r="I114" s="5" t="str">
-        <f>G114&amp;"."&amp;H114</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -5165,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="I115" s="5" t="str">
-        <f>G115&amp;"."&amp;H115</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -5192,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="I116" s="5" t="str">
-        <f>G116&amp;"."&amp;H116</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -5219,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="5" t="str">
-        <f>G117&amp;"."&amp;H117</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -5243,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="I118" s="5" t="str">
-        <f>G118&amp;"."&amp;H118</f>
+        <f t="shared" si="1"/>
         <v>?.1</v>
       </c>
     </row>
@@ -5270,7 +5272,7 @@
         <v>514</v>
       </c>
       <c r="I119" s="5" t="str">
-        <f>G119&amp;"."&amp;H119</f>
+        <f t="shared" si="1"/>
         <v>?.?</v>
       </c>
     </row>
@@ -5297,7 +5299,7 @@
         <v>514</v>
       </c>
       <c r="I120" s="5" t="str">
-        <f>G120&amp;"."&amp;H120</f>
+        <f t="shared" si="1"/>
         <v>?.?</v>
       </c>
     </row>
@@ -5324,7 +5326,7 @@
         <v>514</v>
       </c>
       <c r="I121" s="5" t="str">
-        <f>G121&amp;"."&amp;H121</f>
+        <f t="shared" si="1"/>
         <v>?.?</v>
       </c>
     </row>
@@ -5351,7 +5353,7 @@
         <v>514</v>
       </c>
       <c r="I122" s="5" t="str">
-        <f>G122&amp;"."&amp;H122</f>
+        <f t="shared" si="1"/>
         <v>?.?</v>
       </c>
     </row>
@@ -5378,7 +5380,7 @@
         <v>514</v>
       </c>
       <c r="I123" s="5" t="str">
-        <f>G123&amp;"."&amp;H123</f>
+        <f t="shared" si="1"/>
         <v>?.?</v>
       </c>
     </row>
@@ -5405,7 +5407,7 @@
         <v>518</v>
       </c>
       <c r="I124" s="5" t="str">
-        <f>G124&amp;"."&amp;H124</f>
+        <f t="shared" si="1"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -5432,7 +5434,7 @@
         <v>518</v>
       </c>
       <c r="I125" s="5" t="str">
-        <f>G125&amp;"."&amp;H125</f>
+        <f t="shared" si="1"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -5459,7 +5461,7 @@
         <v>514</v>
       </c>
       <c r="I126" s="5" t="str">
-        <f>G126&amp;"."&amp;H126</f>
+        <f t="shared" si="1"/>
         <v>4.?</v>
       </c>
     </row>
@@ -5486,7 +5488,7 @@
         <v>514</v>
       </c>
       <c r="I127" s="5" t="str">
-        <f>G127&amp;"."&amp;H127</f>
+        <f t="shared" si="1"/>
         <v>1.?</v>
       </c>
     </row>
@@ -5513,7 +5515,7 @@
         <v>514</v>
       </c>
       <c r="I128" s="5" t="str">
-        <f>G128&amp;"."&amp;H128</f>
+        <f t="shared" si="1"/>
         <v>1.?</v>
       </c>
     </row>
@@ -5540,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="I129" s="5" t="str">
-        <f>G129&amp;"."&amp;H129</f>
+        <f t="shared" si="1"/>
         <v>1.1</v>
       </c>
     </row>
@@ -5567,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="I130" s="5" t="str">
-        <f>G130&amp;"."&amp;H130</f>
+        <f t="shared" ref="I130:I193" si="2">G130&amp;"."&amp;H130</f>
         <v>3.1</v>
       </c>
     </row>
@@ -5594,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="I131" s="5" t="str">
-        <f>G131&amp;"."&amp;H131</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5621,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="I132" s="5" t="str">
-        <f>G132&amp;"."&amp;H132</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5648,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="I133" s="5" t="str">
-        <f>G133&amp;"."&amp;H133</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5675,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="I134" s="5" t="str">
-        <f>G134&amp;"."&amp;H134</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5702,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="I135" s="5" t="str">
-        <f>G135&amp;"."&amp;H135</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5729,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="I136" s="5" t="str">
-        <f>G136&amp;"."&amp;H136</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5756,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="I137" s="5" t="str">
-        <f>G137&amp;"."&amp;H137</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5783,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="I138" s="5" t="str">
-        <f>G138&amp;"."&amp;H138</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5810,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="I139" s="5" t="str">
-        <f>G139&amp;"."&amp;H139</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5837,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="I140" s="5" t="str">
-        <f>G140&amp;"."&amp;H140</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5864,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="I141" s="5" t="str">
-        <f>G141&amp;"."&amp;H141</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5891,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="5" t="str">
-        <f>G142&amp;"."&amp;H142</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5918,7 +5920,7 @@
         <v>1</v>
       </c>
       <c r="I143" s="5" t="str">
-        <f>G143&amp;"."&amp;H143</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5945,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="5" t="str">
-        <f>G144&amp;"."&amp;H144</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5972,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="I145" s="5" t="str">
-        <f>G145&amp;"."&amp;H145</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -5999,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="I146" s="5" t="str">
-        <f>G146&amp;"."&amp;H146</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6026,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="I147" s="5" t="str">
-        <f>G147&amp;"."&amp;H147</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6053,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="I148" s="5" t="str">
-        <f>G148&amp;"."&amp;H148</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6080,7 +6082,7 @@
         <v>1</v>
       </c>
       <c r="I149" s="5" t="str">
-        <f>G149&amp;"."&amp;H149</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6107,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="I150" s="5" t="str">
-        <f>G150&amp;"."&amp;H150</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6134,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="I151" s="5" t="str">
-        <f>G151&amp;"."&amp;H151</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6161,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="I152" s="5" t="str">
-        <f>G152&amp;"."&amp;H152</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6188,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="I153" s="5" t="str">
-        <f>G153&amp;"."&amp;H153</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6215,7 +6217,7 @@
         <v>1</v>
       </c>
       <c r="I154" s="5" t="str">
-        <f>G154&amp;"."&amp;H154</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6242,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="I155" s="5" t="str">
-        <f>G155&amp;"."&amp;H155</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6269,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="I156" s="5" t="str">
-        <f>G156&amp;"."&amp;H156</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6296,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="I157" s="5" t="str">
-        <f>G157&amp;"."&amp;H157</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6323,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="I158" s="5" t="str">
-        <f>G158&amp;"."&amp;H158</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6350,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="I159" s="5" t="str">
-        <f>G159&amp;"."&amp;H159</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6377,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="I160" s="5" t="str">
-        <f>G160&amp;"."&amp;H160</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6404,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="I161" s="5" t="str">
-        <f>G161&amp;"."&amp;H161</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6431,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="5" t="str">
-        <f>G162&amp;"."&amp;H162</f>
+        <f t="shared" si="2"/>
         <v>1.1</v>
       </c>
     </row>
@@ -6458,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="I163" s="5" t="str">
-        <f>G163&amp;"."&amp;H163</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6485,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="5" t="str">
-        <f>G164&amp;"."&amp;H164</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6512,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="I165" s="5" t="str">
-        <f>G165&amp;"."&amp;H165</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6539,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="5" t="str">
-        <f>G166&amp;"."&amp;H166</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6566,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="I167" s="5" t="str">
-        <f>G167&amp;"."&amp;H167</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6593,7 +6595,7 @@
         <v>1</v>
       </c>
       <c r="I168" s="5" t="str">
-        <f>G168&amp;"."&amp;H168</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6620,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="I169" s="5" t="str">
-        <f>G169&amp;"."&amp;H169</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6647,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="5" t="str">
-        <f>G170&amp;"."&amp;H170</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6674,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="5" t="str">
-        <f>G171&amp;"."&amp;H171</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6701,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="5" t="str">
-        <f>G172&amp;"."&amp;H172</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6728,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="I173" s="5" t="str">
-        <f>G173&amp;"."&amp;H173</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6755,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="I174" s="5" t="str">
-        <f>G174&amp;"."&amp;H174</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6782,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="5" t="str">
-        <f>G175&amp;"."&amp;H175</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6809,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="I176" s="5" t="str">
-        <f>G176&amp;"."&amp;H176</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6836,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="5" t="str">
-        <f>G177&amp;"."&amp;H177</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6863,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="5" t="str">
-        <f>G178&amp;"."&amp;H178</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6890,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="I179" s="5" t="str">
-        <f>G179&amp;"."&amp;H179</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6917,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="I180" s="5" t="str">
-        <f>G180&amp;"."&amp;H180</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6944,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="I181" s="5" t="str">
-        <f>G181&amp;"."&amp;H181</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6971,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="I182" s="5" t="str">
-        <f>G182&amp;"."&amp;H182</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -6998,7 +7000,7 @@
         <v>1</v>
       </c>
       <c r="I183" s="5" t="str">
-        <f>G183&amp;"."&amp;H183</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7025,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="I184" s="5" t="str">
-        <f>G184&amp;"."&amp;H184</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7052,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="I185" s="5" t="str">
-        <f>G185&amp;"."&amp;H185</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7079,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="I186" s="5" t="str">
-        <f>G186&amp;"."&amp;H186</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7106,7 +7108,7 @@
         <v>1</v>
       </c>
       <c r="I187" s="5" t="str">
-        <f>G187&amp;"."&amp;H187</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7133,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="I188" s="5" t="str">
-        <f>G188&amp;"."&amp;H188</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7160,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="I189" s="5" t="str">
-        <f>G189&amp;"."&amp;H189</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7187,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="I190" s="5" t="str">
-        <f>G190&amp;"."&amp;H190</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7214,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="I191" s="5" t="str">
-        <f>G191&amp;"."&amp;H191</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7241,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="I192" s="5" t="str">
-        <f>G192&amp;"."&amp;H192</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7268,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="I193" s="5" t="str">
-        <f>G193&amp;"."&amp;H193</f>
+        <f t="shared" si="2"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7295,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="I194" s="5" t="str">
-        <f>G194&amp;"."&amp;H194</f>
+        <f t="shared" ref="I194:I257" si="3">G194&amp;"."&amp;H194</f>
         <v>3.1</v>
       </c>
     </row>
@@ -7322,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="I195" s="5" t="str">
-        <f>G195&amp;"."&amp;H195</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7349,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="I196" s="5" t="str">
-        <f>G196&amp;"."&amp;H196</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7376,7 +7378,7 @@
         <v>1</v>
       </c>
       <c r="I197" s="5" t="str">
-        <f>G197&amp;"."&amp;H197</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7403,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="I198" s="5" t="str">
-        <f>G198&amp;"."&amp;H198</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7430,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="I199" s="5" t="str">
-        <f>G199&amp;"."&amp;H199</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7457,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="I200" s="5" t="str">
-        <f>G200&amp;"."&amp;H200</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7484,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="I201" s="5" t="str">
-        <f>G201&amp;"."&amp;H201</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7511,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="I202" s="5" t="str">
-        <f>G202&amp;"."&amp;H202</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7538,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="I203" s="5" t="str">
-        <f>G203&amp;"."&amp;H203</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7565,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="I204" s="5" t="str">
-        <f>G204&amp;"."&amp;H204</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7592,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="5" t="str">
-        <f>G205&amp;"."&amp;H205</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7619,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="5" t="str">
-        <f>G206&amp;"."&amp;H206</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7646,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="I207" s="5" t="str">
-        <f>G207&amp;"."&amp;H207</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7673,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="I208" s="5" t="str">
-        <f>G208&amp;"."&amp;H208</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7700,7 +7702,7 @@
         <v>1</v>
       </c>
       <c r="I209" s="5" t="str">
-        <f>G209&amp;"."&amp;H209</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7727,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="I210" s="5" t="str">
-        <f>G210&amp;"."&amp;H210</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7754,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="5" t="str">
-        <f>G211&amp;"."&amp;H211</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7781,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="I212" s="5" t="str">
-        <f>G212&amp;"."&amp;H212</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7808,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="I213" s="5" t="str">
-        <f>G213&amp;"."&amp;H213</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7835,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="I214" s="5" t="str">
-        <f>G214&amp;"."&amp;H214</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7862,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="I215" s="5" t="str">
-        <f>G215&amp;"."&amp;H215</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7889,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="I216" s="5" t="str">
-        <f>G216&amp;"."&amp;H216</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7916,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="I217" s="5" t="str">
-        <f>G217&amp;"."&amp;H217</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7943,7 +7945,7 @@
         <v>1</v>
       </c>
       <c r="I218" s="5" t="str">
-        <f>G218&amp;"."&amp;H218</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7970,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="I219" s="5" t="str">
-        <f>G219&amp;"."&amp;H219</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -7997,7 +7999,7 @@
         <v>1</v>
       </c>
       <c r="I220" s="5" t="str">
-        <f>G220&amp;"."&amp;H220</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8024,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="I221" s="5" t="str">
-        <f>G221&amp;"."&amp;H221</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8051,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="I222" s="5" t="str">
-        <f>G222&amp;"."&amp;H222</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8078,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="I223" s="5" t="str">
-        <f>G223&amp;"."&amp;H223</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8105,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="I224" s="5" t="str">
-        <f>G224&amp;"."&amp;H224</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8132,7 +8134,7 @@
         <v>1</v>
       </c>
       <c r="I225" s="5" t="str">
-        <f>G225&amp;"."&amp;H225</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8159,7 +8161,7 @@
         <v>1</v>
       </c>
       <c r="I226" s="5" t="str">
-        <f>G226&amp;"."&amp;H226</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8186,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="I227" s="5" t="str">
-        <f>G227&amp;"."&amp;H227</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8213,7 +8215,7 @@
         <v>1</v>
       </c>
       <c r="I228" s="5" t="str">
-        <f>G228&amp;"."&amp;H228</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8240,7 +8242,7 @@
         <v>1</v>
       </c>
       <c r="I229" s="5" t="str">
-        <f>G229&amp;"."&amp;H229</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8267,7 +8269,7 @@
         <v>1</v>
       </c>
       <c r="I230" s="5" t="str">
-        <f>G230&amp;"."&amp;H230</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8294,7 +8296,7 @@
         <v>1</v>
       </c>
       <c r="I231" s="5" t="str">
-        <f>G231&amp;"."&amp;H231</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8321,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="I232" s="5" t="str">
-        <f>G232&amp;"."&amp;H232</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8348,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="I233" s="5" t="str">
-        <f>G233&amp;"."&amp;H233</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8375,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="I234" s="5" t="str">
-        <f>G234&amp;"."&amp;H234</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8402,7 +8404,7 @@
         <v>514</v>
       </c>
       <c r="I235" s="5" t="str">
-        <f>G235&amp;"."&amp;H235</f>
+        <f t="shared" si="3"/>
         <v>3.?</v>
       </c>
     </row>
@@ -8429,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="I236" s="5" t="str">
-        <f>G236&amp;"."&amp;H236</f>
+        <f t="shared" si="3"/>
         <v>?.1</v>
       </c>
     </row>
@@ -8456,7 +8458,7 @@
         <v>1</v>
       </c>
       <c r="I237" s="5" t="str">
-        <f>G237&amp;"."&amp;H237</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8483,7 +8485,7 @@
         <v>1</v>
       </c>
       <c r="I238" s="5" t="str">
-        <f>G238&amp;"."&amp;H238</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8510,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="I239" s="5" t="str">
-        <f>G239&amp;"."&amp;H239</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8537,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="I240" s="5" t="str">
-        <f>G240&amp;"."&amp;H240</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8564,7 +8566,7 @@
         <v>1</v>
       </c>
       <c r="I241" s="5" t="str">
-        <f>G241&amp;"."&amp;H241</f>
+        <f t="shared" si="3"/>
         <v>3.1</v>
       </c>
     </row>
@@ -8591,7 +8593,7 @@
         <v>518</v>
       </c>
       <c r="I242" s="5" t="str">
-        <f>G242&amp;"."&amp;H242</f>
+        <f t="shared" si="3"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -8618,7 +8620,7 @@
         <v>514</v>
       </c>
       <c r="I243" s="5" t="str">
-        <f>G243&amp;"."&amp;H243</f>
+        <f t="shared" si="3"/>
         <v>?.?</v>
       </c>
     </row>
@@ -8645,7 +8647,7 @@
         <v>514</v>
       </c>
       <c r="I244" s="5" t="str">
-        <f>G244&amp;"."&amp;H244</f>
+        <f t="shared" si="3"/>
         <v>3.?</v>
       </c>
     </row>
@@ -8672,7 +8674,7 @@
         <v>514</v>
       </c>
       <c r="I245" s="5" t="str">
-        <f>G245&amp;"."&amp;H245</f>
+        <f t="shared" si="3"/>
         <v>3.?</v>
       </c>
     </row>
@@ -8699,7 +8701,7 @@
         <v>514</v>
       </c>
       <c r="I246" s="5" t="str">
-        <f>G246&amp;"."&amp;H246</f>
+        <f t="shared" si="3"/>
         <v>3.?</v>
       </c>
     </row>
@@ -8726,7 +8728,7 @@
         <v>514</v>
       </c>
       <c r="I247" s="5" t="str">
-        <f>G247&amp;"."&amp;H247</f>
+        <f t="shared" si="3"/>
         <v>?.?</v>
       </c>
     </row>
@@ -8753,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="I248" s="5" t="str">
-        <f>G248&amp;"."&amp;H248</f>
+        <f t="shared" si="3"/>
         <v>?.2</v>
       </c>
       <c r="J248" t="s">
@@ -8783,7 +8785,7 @@
         <v>2</v>
       </c>
       <c r="I249" s="5" t="str">
-        <f>G249&amp;"."&amp;H249</f>
+        <f t="shared" si="3"/>
         <v>?.2</v>
       </c>
     </row>
@@ -8810,7 +8812,7 @@
         <v>2</v>
       </c>
       <c r="I250" s="5" t="str">
-        <f>G250&amp;"."&amp;H250</f>
+        <f t="shared" si="3"/>
         <v>2.2</v>
       </c>
     </row>
@@ -8837,7 +8839,7 @@
         <v>2</v>
       </c>
       <c r="I251" s="5" t="str">
-        <f>G251&amp;"."&amp;H251</f>
+        <f t="shared" si="3"/>
         <v>?.2</v>
       </c>
     </row>
@@ -8864,7 +8866,7 @@
         <v>2</v>
       </c>
       <c r="I252" s="5" t="str">
-        <f>G252&amp;"."&amp;H252</f>
+        <f t="shared" si="3"/>
         <v>2.2</v>
       </c>
     </row>
@@ -8891,7 +8893,7 @@
         <v>2</v>
       </c>
       <c r="I253" s="5" t="str">
-        <f>G253&amp;"."&amp;H253</f>
+        <f t="shared" si="3"/>
         <v>?.2</v>
       </c>
     </row>
@@ -8918,7 +8920,7 @@
         <v>2</v>
       </c>
       <c r="I254" s="5" t="str">
-        <f>G254&amp;"."&amp;H254</f>
+        <f t="shared" si="3"/>
         <v>?.2</v>
       </c>
     </row>
@@ -8945,7 +8947,7 @@
         <v>2</v>
       </c>
       <c r="I255" s="5" t="str">
-        <f>G255&amp;"."&amp;H255</f>
+        <f t="shared" si="3"/>
         <v>2.2</v>
       </c>
     </row>
@@ -8972,7 +8974,7 @@
         <v>2</v>
       </c>
       <c r="I256" s="5" t="str">
-        <f>G256&amp;"."&amp;H256</f>
+        <f t="shared" si="3"/>
         <v>2.2</v>
       </c>
     </row>
@@ -8999,7 +9001,7 @@
         <v>2</v>
       </c>
       <c r="I257" s="5" t="str">
-        <f>G257&amp;"."&amp;H257</f>
+        <f t="shared" si="3"/>
         <v>2.2</v>
       </c>
     </row>
@@ -9026,7 +9028,7 @@
         <v>2</v>
       </c>
       <c r="I258" s="5" t="str">
-        <f>G258&amp;"."&amp;H258</f>
+        <f t="shared" ref="I258:I321" si="4">G258&amp;"."&amp;H258</f>
         <v>?.2</v>
       </c>
     </row>
@@ -9053,7 +9055,7 @@
         <v>2</v>
       </c>
       <c r="I259" s="5" t="str">
-        <f>G259&amp;"."&amp;H259</f>
+        <f t="shared" si="4"/>
         <v>2.2</v>
       </c>
     </row>
@@ -9080,7 +9082,7 @@
         <v>2</v>
       </c>
       <c r="I260" s="5" t="str">
-        <f>G260&amp;"."&amp;H260</f>
+        <f t="shared" si="4"/>
         <v>?.2</v>
       </c>
     </row>
@@ -9107,7 +9109,7 @@
         <v>2</v>
       </c>
       <c r="I261" s="5" t="str">
-        <f>G261&amp;"."&amp;H261</f>
+        <f t="shared" si="4"/>
         <v>?.2</v>
       </c>
     </row>
@@ -9131,7 +9133,7 @@
         <v>2</v>
       </c>
       <c r="I262" s="5" t="str">
-        <f>G262&amp;"."&amp;H262</f>
+        <f t="shared" si="4"/>
         <v>?.2</v>
       </c>
     </row>
@@ -9158,7 +9160,7 @@
         <v>2</v>
       </c>
       <c r="I263" s="5" t="str">
-        <f>G263&amp;"."&amp;H263</f>
+        <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
     </row>
@@ -9185,7 +9187,7 @@
         <v>2</v>
       </c>
       <c r="I264" s="5" t="str">
-        <f>G264&amp;"."&amp;H264</f>
+        <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
     </row>
@@ -9212,7 +9214,7 @@
         <v>2</v>
       </c>
       <c r="I265" s="5" t="str">
-        <f>G265&amp;"."&amp;H265</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9239,7 +9241,7 @@
         <v>2</v>
       </c>
       <c r="I266" s="5" t="str">
-        <f>G266&amp;"."&amp;H266</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9266,7 +9268,7 @@
         <v>2</v>
       </c>
       <c r="I267" s="5" t="str">
-        <f>G267&amp;"."&amp;H267</f>
+        <f t="shared" si="4"/>
         <v>2.2</v>
       </c>
     </row>
@@ -9293,7 +9295,7 @@
         <v>2</v>
       </c>
       <c r="I268" s="5" t="str">
-        <f>G268&amp;"."&amp;H268</f>
+        <f t="shared" si="4"/>
         <v>2.2</v>
       </c>
     </row>
@@ -9320,7 +9322,7 @@
         <v>2</v>
       </c>
       <c r="I269" s="5" t="str">
-        <f>G269&amp;"."&amp;H269</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9347,7 +9349,7 @@
         <v>2</v>
       </c>
       <c r="I270" s="5" t="str">
-        <f>G270&amp;"."&amp;H270</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9374,7 +9376,7 @@
         <v>2</v>
       </c>
       <c r="I271" s="5" t="str">
-        <f>G271&amp;"."&amp;H271</f>
+        <f t="shared" si="4"/>
         <v>?.2</v>
       </c>
     </row>
@@ -9401,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="I272" s="5" t="str">
-        <f>G272&amp;"."&amp;H272</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9428,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="I273" s="5" t="str">
-        <f>G273&amp;"."&amp;H273</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9455,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="I274" s="5" t="str">
-        <f>G274&amp;"."&amp;H274</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9482,7 +9484,7 @@
         <v>2</v>
       </c>
       <c r="I275" s="5" t="str">
-        <f>G275&amp;"."&amp;H275</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9509,7 +9511,7 @@
         <v>2</v>
       </c>
       <c r="I276" s="5" t="str">
-        <f>G276&amp;"."&amp;H276</f>
+        <f t="shared" si="4"/>
         <v>?.2</v>
       </c>
     </row>
@@ -9536,7 +9538,7 @@
         <v>2</v>
       </c>
       <c r="I277" s="5" t="str">
-        <f>G277&amp;"."&amp;H277</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9563,7 +9565,7 @@
         <v>2</v>
       </c>
       <c r="I278" s="5" t="str">
-        <f>G278&amp;"."&amp;H278</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9590,7 +9592,7 @@
         <v>2</v>
       </c>
       <c r="I279" s="5" t="str">
-        <f>G279&amp;"."&amp;H279</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9617,7 +9619,7 @@
         <v>2</v>
       </c>
       <c r="I280" s="5" t="str">
-        <f>G280&amp;"."&amp;H280</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9644,7 +9646,7 @@
         <v>2</v>
       </c>
       <c r="I281" s="5" t="str">
-        <f>G281&amp;"."&amp;H281</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9671,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="I282" s="5" t="str">
-        <f>G282&amp;"."&amp;H282</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9698,7 +9700,7 @@
         <v>2</v>
       </c>
       <c r="I283" s="5" t="str">
-        <f>G283&amp;"."&amp;H283</f>
+        <f t="shared" si="4"/>
         <v>3.2</v>
       </c>
     </row>
@@ -9725,7 +9727,7 @@
         <v>2</v>
       </c>
       <c r="I284" s="5" t="str">
-        <f>G284&amp;"."&amp;H284</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9752,7 +9754,7 @@
         <v>2</v>
       </c>
       <c r="I285" s="5" t="str">
-        <f>G285&amp;"."&amp;H285</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9779,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="I286" s="5" t="str">
-        <f>G286&amp;"."&amp;H286</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9806,7 +9808,7 @@
         <v>2</v>
       </c>
       <c r="I287" s="5" t="str">
-        <f>G287&amp;"."&amp;H287</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9833,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="I288" s="5" t="str">
-        <f>G288&amp;"."&amp;H288</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9860,7 +9862,7 @@
         <v>2</v>
       </c>
       <c r="I289" s="5" t="str">
-        <f>G289&amp;"."&amp;H289</f>
+        <f t="shared" si="4"/>
         <v>?.2</v>
       </c>
     </row>
@@ -9887,7 +9889,7 @@
         <v>2</v>
       </c>
       <c r="I290" s="5" t="str">
-        <f>G290&amp;"."&amp;H290</f>
+        <f t="shared" si="4"/>
         <v>?.2</v>
       </c>
     </row>
@@ -9914,7 +9916,7 @@
         <v>2</v>
       </c>
       <c r="I291" s="5" t="str">
-        <f>G291&amp;"."&amp;H291</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9941,7 +9943,7 @@
         <v>2</v>
       </c>
       <c r="I292" s="5" t="str">
-        <f>G292&amp;"."&amp;H292</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9968,7 +9970,7 @@
         <v>2</v>
       </c>
       <c r="I293" s="5" t="str">
-        <f>G293&amp;"."&amp;H293</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -9995,7 +9997,7 @@
         <v>2</v>
       </c>
       <c r="I294" s="5" t="str">
-        <f>G294&amp;"."&amp;H294</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10022,7 +10024,7 @@
         <v>2</v>
       </c>
       <c r="I295" s="5" t="str">
-        <f>G295&amp;"."&amp;H295</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10049,7 +10051,7 @@
         <v>2</v>
       </c>
       <c r="I296" s="5" t="str">
-        <f>G296&amp;"."&amp;H296</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10076,7 +10078,7 @@
         <v>2</v>
       </c>
       <c r="I297" s="5" t="str">
-        <f>G297&amp;"."&amp;H297</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10103,7 +10105,7 @@
         <v>2</v>
       </c>
       <c r="I298" s="5" t="str">
-        <f>G298&amp;"."&amp;H298</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10130,7 +10132,7 @@
         <v>2</v>
       </c>
       <c r="I299" s="5" t="str">
-        <f>G299&amp;"."&amp;H299</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10157,7 +10159,7 @@
         <v>2</v>
       </c>
       <c r="I300" s="5" t="str">
-        <f>G300&amp;"."&amp;H300</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10184,7 +10186,7 @@
         <v>2</v>
       </c>
       <c r="I301" s="5" t="str">
-        <f>G301&amp;"."&amp;H301</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10211,7 +10213,7 @@
         <v>2</v>
       </c>
       <c r="I302" s="5" t="str">
-        <f>G302&amp;"."&amp;H302</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10238,7 +10240,7 @@
         <v>2</v>
       </c>
       <c r="I303" s="5" t="str">
-        <f>G303&amp;"."&amp;H303</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10265,7 +10267,7 @@
         <v>2</v>
       </c>
       <c r="I304" s="5" t="str">
-        <f>G304&amp;"."&amp;H304</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10292,7 +10294,7 @@
         <v>2</v>
       </c>
       <c r="I305" s="5" t="str">
-        <f>G305&amp;"."&amp;H305</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10319,7 +10321,7 @@
         <v>2</v>
       </c>
       <c r="I306" s="5" t="str">
-        <f>G306&amp;"."&amp;H306</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10346,7 +10348,7 @@
         <v>2</v>
       </c>
       <c r="I307" s="5" t="str">
-        <f>G307&amp;"."&amp;H307</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10373,7 +10375,7 @@
         <v>2</v>
       </c>
       <c r="I308" s="5" t="str">
-        <f>G308&amp;"."&amp;H308</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10400,7 +10402,7 @@
         <v>2</v>
       </c>
       <c r="I309" s="5" t="str">
-        <f>G309&amp;"."&amp;H309</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10427,7 +10429,7 @@
         <v>2</v>
       </c>
       <c r="I310" s="5" t="str">
-        <f>G310&amp;"."&amp;H310</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10454,7 +10456,7 @@
         <v>2</v>
       </c>
       <c r="I311" s="5" t="str">
-        <f>G311&amp;"."&amp;H311</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10481,7 +10483,7 @@
         <v>2</v>
       </c>
       <c r="I312" s="5" t="str">
-        <f>G312&amp;"."&amp;H312</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10508,7 +10510,7 @@
         <v>2</v>
       </c>
       <c r="I313" s="5" t="str">
-        <f>G313&amp;"."&amp;H313</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10535,7 +10537,7 @@
         <v>2</v>
       </c>
       <c r="I314" s="5" t="str">
-        <f>G314&amp;"."&amp;H314</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10562,7 +10564,7 @@
         <v>2</v>
       </c>
       <c r="I315" s="5" t="str">
-        <f>G315&amp;"."&amp;H315</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10589,7 +10591,7 @@
         <v>2</v>
       </c>
       <c r="I316" s="5" t="str">
-        <f>G316&amp;"."&amp;H316</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10616,7 +10618,7 @@
         <v>2</v>
       </c>
       <c r="I317" s="5" t="str">
-        <f>G317&amp;"."&amp;H317</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10643,7 +10645,7 @@
         <v>2</v>
       </c>
       <c r="I318" s="5" t="str">
-        <f>G318&amp;"."&amp;H318</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10670,7 +10672,7 @@
         <v>2</v>
       </c>
       <c r="I319" s="5" t="str">
-        <f>G319&amp;"."&amp;H319</f>
+        <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10694,7 +10696,7 @@
         <v>514</v>
       </c>
       <c r="I320" s="5" t="str">
-        <f>G320&amp;"."&amp;H320</f>
+        <f t="shared" si="4"/>
         <v>?.?</v>
       </c>
     </row>
@@ -10721,7 +10723,7 @@
         <v>514</v>
       </c>
       <c r="I321" s="5" t="str">
-        <f>G321&amp;"."&amp;H321</f>
+        <f t="shared" si="4"/>
         <v>?.?</v>
       </c>
     </row>
@@ -10748,7 +10750,7 @@
         <v>2</v>
       </c>
       <c r="I322" s="5" t="str">
-        <f>G322&amp;"."&amp;H322</f>
+        <f t="shared" ref="I322:I385" si="5">G322&amp;"."&amp;H322</f>
         <v>?.2</v>
       </c>
     </row>
@@ -10775,7 +10777,7 @@
         <v>2</v>
       </c>
       <c r="I323" s="5" t="str">
-        <f>G323&amp;"."&amp;H323</f>
+        <f t="shared" si="5"/>
         <v>?.2</v>
       </c>
     </row>
@@ -10802,7 +10804,7 @@
         <v>2</v>
       </c>
       <c r="I324" s="5" t="str">
-        <f>G324&amp;"."&amp;H324</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10829,7 +10831,7 @@
         <v>2</v>
       </c>
       <c r="I325" s="5" t="str">
-        <f>G325&amp;"."&amp;H325</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10856,7 +10858,7 @@
         <v>2</v>
       </c>
       <c r="I326" s="5" t="str">
-        <f>G326&amp;"."&amp;H326</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10883,7 +10885,7 @@
         <v>2</v>
       </c>
       <c r="I327" s="5" t="str">
-        <f>G327&amp;"."&amp;H327</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10910,7 +10912,7 @@
         <v>2</v>
       </c>
       <c r="I328" s="5" t="str">
-        <f>G328&amp;"."&amp;H328</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10937,7 +10939,7 @@
         <v>2</v>
       </c>
       <c r="I329" s="5" t="str">
-        <f>G329&amp;"."&amp;H329</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10964,7 +10966,7 @@
         <v>2</v>
       </c>
       <c r="I330" s="5" t="str">
-        <f>G330&amp;"."&amp;H330</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10991,7 +10993,7 @@
         <v>2</v>
       </c>
       <c r="I331" s="5" t="str">
-        <f>G331&amp;"."&amp;H331</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -11018,7 +11020,7 @@
         <v>2</v>
       </c>
       <c r="I332" s="5" t="str">
-        <f>G332&amp;"."&amp;H332</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -11045,7 +11047,7 @@
         <v>2</v>
       </c>
       <c r="I333" s="5" t="str">
-        <f>G333&amp;"."&amp;H333</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -11072,7 +11074,7 @@
         <v>2</v>
       </c>
       <c r="I334" s="5" t="str">
-        <f>G334&amp;"."&amp;H334</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -11099,7 +11101,7 @@
         <v>2</v>
       </c>
       <c r="I335" s="5" t="str">
-        <f>G335&amp;"."&amp;H335</f>
+        <f t="shared" si="5"/>
         <v>?.2</v>
       </c>
     </row>
@@ -11126,7 +11128,7 @@
         <v>2</v>
       </c>
       <c r="I336" s="5" t="str">
-        <f>G336&amp;"."&amp;H336</f>
+        <f t="shared" si="5"/>
         <v>?.2</v>
       </c>
     </row>
@@ -11153,7 +11155,7 @@
         <v>2</v>
       </c>
       <c r="I337" s="5" t="str">
-        <f>G337&amp;"."&amp;H337</f>
+        <f t="shared" si="5"/>
         <v>?.2</v>
       </c>
     </row>
@@ -11180,7 +11182,7 @@
         <v>2</v>
       </c>
       <c r="I338" s="5" t="str">
-        <f>G338&amp;"."&amp;H338</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -11207,7 +11209,7 @@
         <v>2</v>
       </c>
       <c r="I339" s="5" t="str">
-        <f>G339&amp;"."&amp;H339</f>
+        <f t="shared" si="5"/>
         <v>?.2</v>
       </c>
     </row>
@@ -11234,7 +11236,7 @@
         <v>2</v>
       </c>
       <c r="I340" s="5" t="str">
-        <f>G340&amp;"."&amp;H340</f>
+        <f t="shared" si="5"/>
         <v>?.2</v>
       </c>
     </row>
@@ -11261,7 +11263,7 @@
         <v>2</v>
       </c>
       <c r="I341" s="5" t="str">
-        <f>G341&amp;"."&amp;H341</f>
+        <f t="shared" si="5"/>
         <v>?.2</v>
       </c>
     </row>
@@ -11288,7 +11290,7 @@
         <v>2</v>
       </c>
       <c r="I342" s="5" t="str">
-        <f>G342&amp;"."&amp;H342</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -11315,7 +11317,7 @@
         <v>2</v>
       </c>
       <c r="I343" s="5" t="str">
-        <f>G343&amp;"."&amp;H343</f>
+        <f t="shared" si="5"/>
         <v>?.2</v>
       </c>
     </row>
@@ -11342,7 +11344,7 @@
         <v>2</v>
       </c>
       <c r="I344" s="5" t="str">
-        <f>G344&amp;"."&amp;H344</f>
+        <f t="shared" si="5"/>
         <v>?.2</v>
       </c>
     </row>
@@ -11369,7 +11371,7 @@
         <v>2</v>
       </c>
       <c r="I345" s="5" t="str">
-        <f>G345&amp;"."&amp;H345</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -11396,7 +11398,7 @@
         <v>2</v>
       </c>
       <c r="I346" s="5" t="str">
-        <f>G346&amp;"."&amp;H346</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -11423,7 +11425,7 @@
         <v>2</v>
       </c>
       <c r="I347" s="5" t="str">
-        <f>G347&amp;"."&amp;H347</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -11450,7 +11452,7 @@
         <v>2</v>
       </c>
       <c r="I348" s="5" t="str">
-        <f>G348&amp;"."&amp;H348</f>
+        <f t="shared" si="5"/>
         <v>?.2</v>
       </c>
     </row>
@@ -11477,7 +11479,7 @@
         <v>514</v>
       </c>
       <c r="I349" s="5" t="str">
-        <f>G349&amp;"."&amp;H349</f>
+        <f t="shared" si="5"/>
         <v>?.?</v>
       </c>
     </row>
@@ -11504,7 +11506,7 @@
         <v>1</v>
       </c>
       <c r="I350" s="5" t="str">
-        <f>G350&amp;"."&amp;H350</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -11531,7 +11533,7 @@
         <v>1</v>
       </c>
       <c r="I351" s="5" t="str">
-        <f>G351&amp;"."&amp;H351</f>
+        <f t="shared" si="5"/>
         <v>?.1</v>
       </c>
       <c r="J351" t="s">
@@ -11561,7 +11563,7 @@
         <v>514</v>
       </c>
       <c r="I352" s="5" t="str">
-        <f>G352&amp;"."&amp;H352</f>
+        <f t="shared" si="5"/>
         <v>?.?</v>
       </c>
     </row>
@@ -11588,7 +11590,7 @@
         <v>1</v>
       </c>
       <c r="I353" s="5" t="str">
-        <f>G353&amp;"."&amp;H353</f>
+        <f t="shared" si="5"/>
         <v>?.1</v>
       </c>
     </row>
@@ -11615,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="I354" s="5" t="str">
-        <f>G354&amp;"."&amp;H354</f>
+        <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
     </row>
@@ -11642,7 +11644,7 @@
         <v>1</v>
       </c>
       <c r="I355" s="5" t="str">
-        <f>G355&amp;"."&amp;H355</f>
+        <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
     </row>
@@ -11669,7 +11671,7 @@
         <v>1</v>
       </c>
       <c r="I356" s="5" t="str">
-        <f>G356&amp;"."&amp;H356</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -11696,7 +11698,7 @@
         <v>1</v>
       </c>
       <c r="I357" s="5" t="str">
-        <f>G357&amp;"."&amp;H357</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -11723,7 +11725,7 @@
         <v>514</v>
       </c>
       <c r="I358" s="5" t="str">
-        <f>G358&amp;"."&amp;H358</f>
+        <f t="shared" si="5"/>
         <v>?.?</v>
       </c>
     </row>
@@ -11750,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="I359" s="5" t="str">
-        <f>G359&amp;"."&amp;H359</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -11777,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="I360" s="5" t="str">
-        <f>G360&amp;"."&amp;H360</f>
+        <f t="shared" si="5"/>
         <v>2.1</v>
       </c>
     </row>
@@ -11804,7 +11806,7 @@
         <v>1</v>
       </c>
       <c r="I361" s="5" t="str">
-        <f>G361&amp;"."&amp;H361</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -11831,7 +11833,7 @@
         <v>514</v>
       </c>
       <c r="I362" s="5" t="str">
-        <f>G362&amp;"."&amp;H362</f>
+        <f t="shared" si="5"/>
         <v>2.?</v>
       </c>
     </row>
@@ -11858,7 +11860,7 @@
         <v>514</v>
       </c>
       <c r="I363" s="5" t="str">
-        <f>G363&amp;"."&amp;H363</f>
+        <f t="shared" si="5"/>
         <v>1.?</v>
       </c>
     </row>
@@ -11885,7 +11887,7 @@
         <v>1</v>
       </c>
       <c r="I364" s="5" t="str">
-        <f>G364&amp;"."&amp;H364</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -11912,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="I365" s="5" t="str">
-        <f>G365&amp;"."&amp;H365</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -11939,7 +11941,7 @@
         <v>1</v>
       </c>
       <c r="I366" s="5" t="str">
-        <f>G366&amp;"."&amp;H366</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -11966,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="I367" s="5" t="str">
-        <f>G367&amp;"."&amp;H367</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -11993,7 +11995,7 @@
         <v>1</v>
       </c>
       <c r="I368" s="5" t="str">
-        <f>G368&amp;"."&amp;H368</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -12020,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="I369" s="5" t="str">
-        <f>G369&amp;"."&amp;H369</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -12047,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="I370" s="5" t="str">
-        <f>G370&amp;"."&amp;H370</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -12074,7 +12076,7 @@
         <v>1</v>
       </c>
       <c r="I371" s="5" t="str">
-        <f>G371&amp;"."&amp;H371</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -12101,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="I372" s="5" t="str">
-        <f>G372&amp;"."&amp;H372</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -12128,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="I373" s="5" t="str">
-        <f>G373&amp;"."&amp;H373</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -12155,7 +12157,7 @@
         <v>1</v>
       </c>
       <c r="I374" s="5" t="str">
-        <f>G374&amp;"."&amp;H374</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -12182,7 +12184,7 @@
         <v>514</v>
       </c>
       <c r="I375" s="5" t="str">
-        <f>G375&amp;"."&amp;H375</f>
+        <f t="shared" si="5"/>
         <v>?.?</v>
       </c>
     </row>
@@ -12209,7 +12211,7 @@
         <v>514</v>
       </c>
       <c r="I376" s="5" t="str">
-        <f>G376&amp;"."&amp;H376</f>
+        <f t="shared" si="5"/>
         <v>?.?</v>
       </c>
     </row>
@@ -12236,7 +12238,7 @@
         <v>1</v>
       </c>
       <c r="I377" s="5" t="str">
-        <f>G377&amp;"."&amp;H377</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -12263,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="I378" s="5" t="str">
-        <f>G378&amp;"."&amp;H378</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -12290,7 +12292,7 @@
         <v>1</v>
       </c>
       <c r="I379" s="5" t="str">
-        <f>G379&amp;"."&amp;H379</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -12317,7 +12319,7 @@
         <v>1</v>
       </c>
       <c r="I380" s="5" t="str">
-        <f>G380&amp;"."&amp;H380</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -12344,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="I381" s="5" t="str">
-        <f>G381&amp;"."&amp;H381</f>
+        <f t="shared" si="5"/>
         <v>1.1</v>
       </c>
     </row>
@@ -12371,7 +12373,7 @@
         <v>514</v>
       </c>
       <c r="I382" s="5" t="str">
-        <f>G382&amp;"."&amp;H382</f>
+        <f t="shared" si="5"/>
         <v>?.?</v>
       </c>
     </row>
@@ -12398,7 +12400,7 @@
         <v>2</v>
       </c>
       <c r="I383" s="5" t="str">
-        <f>G383&amp;"."&amp;H383</f>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
     </row>
@@ -12425,7 +12427,7 @@
         <v>514</v>
       </c>
       <c r="I384" s="5" t="str">
-        <f>G384&amp;"."&amp;H384</f>
+        <f t="shared" si="5"/>
         <v>1.?</v>
       </c>
     </row>
@@ -12452,7 +12454,7 @@
         <v>2</v>
       </c>
       <c r="I385" s="5" t="str">
-        <f>G385&amp;"."&amp;H385</f>
+        <f t="shared" si="5"/>
         <v>?.2</v>
       </c>
     </row>
@@ -12479,7 +12481,7 @@
         <v>2</v>
       </c>
       <c r="I386" s="5" t="str">
-        <f>G386&amp;"."&amp;H386</f>
+        <f t="shared" ref="I386:I449" si="6">G386&amp;"."&amp;H386</f>
         <v>?.2</v>
       </c>
     </row>
@@ -12506,7 +12508,7 @@
         <v>2</v>
       </c>
       <c r="I387" s="5" t="str">
-        <f>G387&amp;"."&amp;H387</f>
+        <f t="shared" si="6"/>
         <v>?.2</v>
       </c>
     </row>
@@ -12530,7 +12532,7 @@
         <v>2</v>
       </c>
       <c r="I388" s="5" t="str">
-        <f>G388&amp;"."&amp;H388</f>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
     </row>
@@ -12554,7 +12556,7 @@
         <v>2</v>
       </c>
       <c r="I389" s="5" t="str">
-        <f>G389&amp;"."&amp;H389</f>
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
     </row>
@@ -12581,7 +12583,7 @@
         <v>2</v>
       </c>
       <c r="I390" s="5" t="str">
-        <f>G390&amp;"."&amp;H390</f>
+        <f t="shared" si="6"/>
         <v>?.2</v>
       </c>
     </row>
@@ -12608,7 +12610,7 @@
         <v>2</v>
       </c>
       <c r="I391" s="5" t="str">
-        <f>G391&amp;"."&amp;H391</f>
+        <f t="shared" si="6"/>
         <v>?.2</v>
       </c>
     </row>
@@ -12632,7 +12634,7 @@
         <v>514</v>
       </c>
       <c r="I392" s="5" t="str">
-        <f>G392&amp;"."&amp;H392</f>
+        <f t="shared" si="6"/>
         <v>0.?</v>
       </c>
     </row>
@@ -12659,7 +12661,7 @@
         <v>514</v>
       </c>
       <c r="I393" s="5" t="str">
-        <f>G393&amp;"."&amp;H393</f>
+        <f t="shared" si="6"/>
         <v>?.?</v>
       </c>
     </row>
@@ -12686,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="I394" s="5" t="str">
-        <f>G394&amp;"."&amp;H394</f>
+        <f t="shared" si="6"/>
         <v>?.2</v>
       </c>
     </row>
@@ -12713,7 +12715,7 @@
         <v>2</v>
       </c>
       <c r="I395" s="5" t="str">
-        <f>G395&amp;"."&amp;H395</f>
+        <f t="shared" si="6"/>
         <v>?.2</v>
       </c>
     </row>
@@ -12740,7 +12742,7 @@
         <v>2</v>
       </c>
       <c r="I396" s="5" t="str">
-        <f>G396&amp;"."&amp;H396</f>
+        <f t="shared" si="6"/>
         <v>?.2</v>
       </c>
     </row>
@@ -12767,7 +12769,7 @@
         <v>514</v>
       </c>
       <c r="I397" s="5" t="str">
-        <f>G397&amp;"."&amp;H397</f>
+        <f t="shared" si="6"/>
         <v>?.?</v>
       </c>
     </row>
@@ -12794,7 +12796,7 @@
         <v>514</v>
       </c>
       <c r="I398" s="5" t="str">
-        <f>G398&amp;"."&amp;H398</f>
+        <f t="shared" si="6"/>
         <v>1.?</v>
       </c>
     </row>
@@ -12821,7 +12823,7 @@
         <v>514</v>
       </c>
       <c r="I399" s="5" t="str">
-        <f>G399&amp;"."&amp;H399</f>
+        <f t="shared" si="6"/>
         <v>1.?</v>
       </c>
     </row>
@@ -12848,7 +12850,7 @@
         <v>514</v>
       </c>
       <c r="I400" s="5" t="str">
-        <f>G400&amp;"."&amp;H400</f>
+        <f t="shared" si="6"/>
         <v>1.?</v>
       </c>
     </row>
@@ -12875,7 +12877,7 @@
         <v>514</v>
       </c>
       <c r="I401" s="5" t="str">
-        <f>G401&amp;"."&amp;H401</f>
+        <f t="shared" si="6"/>
         <v>?.?</v>
       </c>
     </row>
@@ -12899,7 +12901,7 @@
         <v>514</v>
       </c>
       <c r="I402" s="5" t="str">
-        <f>G402&amp;"."&amp;H402</f>
+        <f t="shared" si="6"/>
         <v>0.?</v>
       </c>
     </row>
@@ -12923,7 +12925,7 @@
         <v>514</v>
       </c>
       <c r="I403" s="5" t="str">
-        <f>G403&amp;"."&amp;H403</f>
+        <f t="shared" si="6"/>
         <v>0.?</v>
       </c>
     </row>
@@ -12950,7 +12952,7 @@
         <v>1</v>
       </c>
       <c r="I404" s="5" t="str">
-        <f>G404&amp;"."&amp;H404</f>
+        <f t="shared" si="6"/>
         <v>?.1</v>
       </c>
     </row>
@@ -12977,7 +12979,7 @@
         <v>514</v>
       </c>
       <c r="I405" s="5" t="str">
-        <f>G405&amp;"."&amp;H405</f>
+        <f t="shared" si="6"/>
         <v>?.?</v>
       </c>
     </row>
@@ -13004,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="I406" s="5" t="str">
-        <f>G406&amp;"."&amp;H406</f>
+        <f t="shared" si="6"/>
         <v>?.1</v>
       </c>
     </row>
@@ -13031,7 +13033,7 @@
         <v>514</v>
       </c>
       <c r="I407" s="5" t="str">
-        <f>G407&amp;"."&amp;H407</f>
+        <f t="shared" si="6"/>
         <v>?.?</v>
       </c>
     </row>
@@ -13058,7 +13060,7 @@
         <v>1</v>
       </c>
       <c r="I408" s="5" t="str">
-        <f>G408&amp;"."&amp;H408</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13085,7 +13087,7 @@
         <v>1</v>
       </c>
       <c r="I409" s="5" t="str">
-        <f>G409&amp;"."&amp;H409</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13112,7 +13114,7 @@
         <v>1</v>
       </c>
       <c r="I410" s="5" t="str">
-        <f>G410&amp;"."&amp;H410</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13139,7 +13141,7 @@
         <v>1</v>
       </c>
       <c r="I411" s="5" t="str">
-        <f>G411&amp;"."&amp;H411</f>
+        <f t="shared" si="6"/>
         <v>?.1</v>
       </c>
     </row>
@@ -13166,7 +13168,7 @@
         <v>1</v>
       </c>
       <c r="I412" s="5" t="str">
-        <f>G412&amp;"."&amp;H412</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13193,7 +13195,7 @@
         <v>1</v>
       </c>
       <c r="I413" s="5" t="str">
-        <f>G413&amp;"."&amp;H413</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13220,7 +13222,7 @@
         <v>1</v>
       </c>
       <c r="I414" s="5" t="str">
-        <f>G414&amp;"."&amp;H414</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13247,7 +13249,7 @@
         <v>1</v>
       </c>
       <c r="I415" s="5" t="str">
-        <f>G415&amp;"."&amp;H415</f>
+        <f t="shared" si="6"/>
         <v>?.1</v>
       </c>
     </row>
@@ -13274,7 +13276,7 @@
         <v>1</v>
       </c>
       <c r="I416" s="5" t="str">
-        <f>G416&amp;"."&amp;H416</f>
+        <f t="shared" si="6"/>
         <v>?.1</v>
       </c>
     </row>
@@ -13301,7 +13303,7 @@
         <v>1</v>
       </c>
       <c r="I417" s="5" t="str">
-        <f>G417&amp;"."&amp;H417</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13328,7 +13330,7 @@
         <v>1</v>
       </c>
       <c r="I418" s="5" t="str">
-        <f>G418&amp;"."&amp;H418</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13355,7 +13357,7 @@
         <v>1</v>
       </c>
       <c r="I419" s="5" t="str">
-        <f>G419&amp;"."&amp;H419</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
       <c r="J419" t="s">
@@ -13385,7 +13387,7 @@
         <v>1</v>
       </c>
       <c r="I420" s="5" t="str">
-        <f>G420&amp;"."&amp;H420</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13412,7 +13414,7 @@
         <v>1</v>
       </c>
       <c r="I421" s="5" t="str">
-        <f>G421&amp;"."&amp;H421</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13439,7 +13441,7 @@
         <v>1</v>
       </c>
       <c r="I422" s="5" t="str">
-        <f>G422&amp;"."&amp;H422</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13466,7 +13468,7 @@
         <v>1</v>
       </c>
       <c r="I423" s="5" t="str">
-        <f>G423&amp;"."&amp;H423</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13493,7 +13495,7 @@
         <v>1</v>
       </c>
       <c r="I424" s="5" t="str">
-        <f>G424&amp;"."&amp;H424</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13520,7 +13522,7 @@
         <v>514</v>
       </c>
       <c r="I425" s="5" t="str">
-        <f>G425&amp;"."&amp;H425</f>
+        <f t="shared" si="6"/>
         <v>1.?</v>
       </c>
     </row>
@@ -13547,7 +13549,7 @@
         <v>1</v>
       </c>
       <c r="I426" s="5" t="str">
-        <f>G426&amp;"."&amp;H426</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13574,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="I427" s="5" t="str">
-        <f>G427&amp;"."&amp;H427</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13601,7 +13603,7 @@
         <v>1</v>
       </c>
       <c r="I428" s="5" t="str">
-        <f>G428&amp;"."&amp;H428</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13628,7 +13630,7 @@
         <v>1</v>
       </c>
       <c r="I429" s="5" t="str">
-        <f>G429&amp;"."&amp;H429</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13655,7 +13657,7 @@
         <v>1</v>
       </c>
       <c r="I430" s="5" t="str">
-        <f>G430&amp;"."&amp;H430</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13682,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="I431" s="5" t="str">
-        <f>G431&amp;"."&amp;H431</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13709,7 +13711,7 @@
         <v>1</v>
       </c>
       <c r="I432" s="5" t="str">
-        <f>G432&amp;"."&amp;H432</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13736,7 +13738,7 @@
         <v>1</v>
       </c>
       <c r="I433" s="5" t="str">
-        <f>G433&amp;"."&amp;H433</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13763,7 +13765,7 @@
         <v>514</v>
       </c>
       <c r="I434" s="5" t="str">
-        <f>G434&amp;"."&amp;H434</f>
+        <f t="shared" si="6"/>
         <v>1.?</v>
       </c>
     </row>
@@ -13790,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="I435" s="5" t="str">
-        <f>G435&amp;"."&amp;H435</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13817,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="I436" s="5" t="str">
-        <f>G436&amp;"."&amp;H436</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13844,7 +13846,7 @@
         <v>1</v>
       </c>
       <c r="I437" s="5" t="str">
-        <f>G437&amp;"."&amp;H437</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13871,7 +13873,7 @@
         <v>1</v>
       </c>
       <c r="I438" s="5" t="str">
-        <f>G438&amp;"."&amp;H438</f>
+        <f t="shared" si="6"/>
         <v>?.1</v>
       </c>
     </row>
@@ -13898,7 +13900,7 @@
         <v>1</v>
       </c>
       <c r="I439" s="5" t="str">
-        <f>G439&amp;"."&amp;H439</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13925,7 +13927,7 @@
         <v>1</v>
       </c>
       <c r="I440" s="5" t="str">
-        <f>G440&amp;"."&amp;H440</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13952,7 +13954,7 @@
         <v>1</v>
       </c>
       <c r="I441" s="5" t="str">
-        <f>G441&amp;"."&amp;H441</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -13979,7 +13981,7 @@
         <v>1</v>
       </c>
       <c r="I442" s="5" t="str">
-        <f>G442&amp;"."&amp;H442</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14006,7 +14008,7 @@
         <v>514</v>
       </c>
       <c r="I443" s="5" t="str">
-        <f>G443&amp;"."&amp;H443</f>
+        <f t="shared" si="6"/>
         <v>1.?</v>
       </c>
     </row>
@@ -14033,7 +14035,7 @@
         <v>1</v>
       </c>
       <c r="I444" s="5" t="str">
-        <f>G444&amp;"."&amp;H444</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14060,7 +14062,7 @@
         <v>1</v>
       </c>
       <c r="I445" s="5" t="str">
-        <f>G445&amp;"."&amp;H445</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14087,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="I446" s="5" t="str">
-        <f>G446&amp;"."&amp;H446</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14114,7 +14116,7 @@
         <v>1</v>
       </c>
       <c r="I447" s="5" t="str">
-        <f>G447&amp;"."&amp;H447</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14141,7 +14143,7 @@
         <v>1</v>
       </c>
       <c r="I448" s="5" t="str">
-        <f>G448&amp;"."&amp;H448</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14168,7 +14170,7 @@
         <v>1</v>
       </c>
       <c r="I449" s="5" t="str">
-        <f>G449&amp;"."&amp;H449</f>
+        <f t="shared" si="6"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14195,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="I450" s="5" t="str">
-        <f>G450&amp;"."&amp;H450</f>
+        <f t="shared" ref="I450:I513" si="7">G450&amp;"."&amp;H450</f>
         <v>1.1</v>
       </c>
     </row>
@@ -14222,7 +14224,7 @@
         <v>1</v>
       </c>
       <c r="I451" s="5" t="str">
-        <f>G451&amp;"."&amp;H451</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14249,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="I452" s="5" t="str">
-        <f>G452&amp;"."&amp;H452</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14276,7 +14278,7 @@
         <v>1</v>
       </c>
       <c r="I453" s="5" t="str">
-        <f>G453&amp;"."&amp;H453</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14303,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="I454" s="5" t="str">
-        <f>G454&amp;"."&amp;H454</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14330,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="I455" s="5" t="str">
-        <f>G455&amp;"."&amp;H455</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14357,7 +14359,7 @@
         <v>1</v>
       </c>
       <c r="I456" s="5" t="str">
-        <f>G456&amp;"."&amp;H456</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14384,7 +14386,7 @@
         <v>1</v>
       </c>
       <c r="I457" s="5" t="str">
-        <f>G457&amp;"."&amp;H457</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14411,7 +14413,7 @@
         <v>1</v>
       </c>
       <c r="I458" s="5" t="str">
-        <f>G458&amp;"."&amp;H458</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14438,7 +14440,7 @@
         <v>1</v>
       </c>
       <c r="I459" s="5" t="str">
-        <f>G459&amp;"."&amp;H459</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14465,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="I460" s="5" t="str">
-        <f>G460&amp;"."&amp;H460</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14489,7 +14491,7 @@
         <v>1</v>
       </c>
       <c r="I461" s="5" t="str">
-        <f>G461&amp;"."&amp;H461</f>
+        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
     </row>
@@ -14516,7 +14518,7 @@
         <v>518</v>
       </c>
       <c r="I462" s="5" t="str">
-        <f>G462&amp;"."&amp;H462</f>
+        <f t="shared" si="7"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -14543,7 +14545,7 @@
         <v>514</v>
       </c>
       <c r="I463" s="5" t="str">
-        <f>G463&amp;"."&amp;H463</f>
+        <f t="shared" si="7"/>
         <v>?.?</v>
       </c>
     </row>
@@ -14570,7 +14572,7 @@
         <v>514</v>
       </c>
       <c r="I464" s="5" t="str">
-        <f>G464&amp;"."&amp;H464</f>
+        <f t="shared" si="7"/>
         <v>?.?</v>
       </c>
     </row>
@@ -14597,7 +14599,7 @@
         <v>514</v>
       </c>
       <c r="I465" s="5" t="str">
-        <f>G465&amp;"."&amp;H465</f>
+        <f t="shared" si="7"/>
         <v>3.?</v>
       </c>
     </row>
@@ -14624,7 +14626,7 @@
         <v>514</v>
       </c>
       <c r="I466" s="5" t="str">
-        <f>G466&amp;"."&amp;H466</f>
+        <f t="shared" si="7"/>
         <v>3.?</v>
       </c>
     </row>
@@ -14651,7 +14653,7 @@
         <v>514</v>
       </c>
       <c r="I467" s="5" t="str">
-        <f>G467&amp;"."&amp;H467</f>
+        <f t="shared" si="7"/>
         <v>3.?</v>
       </c>
     </row>
@@ -14678,7 +14680,7 @@
         <v>514</v>
       </c>
       <c r="I468" s="5" t="str">
-        <f>G468&amp;"."&amp;H468</f>
+        <f t="shared" si="7"/>
         <v>3.?</v>
       </c>
     </row>
@@ -14705,7 +14707,7 @@
         <v>514</v>
       </c>
       <c r="I469" s="5" t="str">
-        <f>G469&amp;"."&amp;H469</f>
+        <f t="shared" si="7"/>
         <v>3.?</v>
       </c>
     </row>
@@ -14732,7 +14734,7 @@
         <v>514</v>
       </c>
       <c r="I470" s="5" t="str">
-        <f>G470&amp;"."&amp;H470</f>
+        <f t="shared" si="7"/>
         <v>?.?</v>
       </c>
     </row>
@@ -14759,7 +14761,7 @@
         <v>514</v>
       </c>
       <c r="I471" s="5" t="str">
-        <f>G471&amp;"."&amp;H471</f>
+        <f t="shared" si="7"/>
         <v>?.?</v>
       </c>
     </row>
@@ -14786,7 +14788,7 @@
         <v>514</v>
       </c>
       <c r="I472" s="5" t="str">
-        <f>G472&amp;"."&amp;H472</f>
+        <f t="shared" si="7"/>
         <v>?.?</v>
       </c>
     </row>
@@ -14813,7 +14815,7 @@
         <v>514</v>
       </c>
       <c r="I473" s="5" t="str">
-        <f>G473&amp;"."&amp;H473</f>
+        <f t="shared" si="7"/>
         <v>?.?</v>
       </c>
     </row>
@@ -14840,7 +14842,7 @@
         <v>514</v>
       </c>
       <c r="I474" s="5" t="str">
-        <f>G474&amp;"."&amp;H474</f>
+        <f t="shared" si="7"/>
         <v>?.?</v>
       </c>
     </row>
@@ -14867,7 +14869,7 @@
         <v>514</v>
       </c>
       <c r="I475" s="5" t="str">
-        <f>G475&amp;"."&amp;H475</f>
+        <f t="shared" si="7"/>
         <v>1.?</v>
       </c>
     </row>
@@ -14894,7 +14896,7 @@
         <v>514</v>
       </c>
       <c r="I476" s="5" t="str">
-        <f>G476&amp;"."&amp;H476</f>
+        <f t="shared" si="7"/>
         <v>?.?</v>
       </c>
     </row>
@@ -14921,7 +14923,7 @@
         <v>1</v>
       </c>
       <c r="I477" s="5" t="str">
-        <f>G477&amp;"."&amp;H477</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -14948,7 +14950,7 @@
         <v>1</v>
       </c>
       <c r="I478" s="5" t="str">
-        <f>G478&amp;"."&amp;H478</f>
+        <f t="shared" si="7"/>
         <v>?.1</v>
       </c>
     </row>
@@ -14975,7 +14977,7 @@
         <v>1</v>
       </c>
       <c r="I479" s="5" t="str">
-        <f>G479&amp;"."&amp;H479</f>
+        <f t="shared" si="7"/>
         <v>?.1</v>
       </c>
     </row>
@@ -15002,7 +15004,7 @@
         <v>1</v>
       </c>
       <c r="I480" s="5" t="str">
-        <f>G480&amp;"."&amp;H480</f>
+        <f t="shared" si="7"/>
         <v>?.1</v>
       </c>
     </row>
@@ -15029,7 +15031,7 @@
         <v>1</v>
       </c>
       <c r="I481" s="5" t="str">
-        <f>G481&amp;"."&amp;H481</f>
+        <f t="shared" si="7"/>
         <v>?.1</v>
       </c>
     </row>
@@ -15056,7 +15058,7 @@
         <v>514</v>
       </c>
       <c r="I482" s="5" t="str">
-        <f>G482&amp;"."&amp;H482</f>
+        <f t="shared" si="7"/>
         <v>?.?</v>
       </c>
     </row>
@@ -15083,7 +15085,7 @@
         <v>514</v>
       </c>
       <c r="I483" s="5" t="str">
-        <f>G483&amp;"."&amp;H483</f>
+        <f t="shared" si="7"/>
         <v>0.?</v>
       </c>
     </row>
@@ -15110,7 +15112,7 @@
         <v>514</v>
       </c>
       <c r="I484" s="5" t="str">
-        <f>G484&amp;"."&amp;H484</f>
+        <f t="shared" si="7"/>
         <v>1.?</v>
       </c>
     </row>
@@ -15137,7 +15139,7 @@
         <v>514</v>
       </c>
       <c r="I485" s="5" t="str">
-        <f>G485&amp;"."&amp;H485</f>
+        <f t="shared" si="7"/>
         <v>1.?</v>
       </c>
     </row>
@@ -15164,7 +15166,7 @@
         <v>1</v>
       </c>
       <c r="I486" s="5" t="str">
-        <f>G486&amp;"."&amp;H486</f>
+        <f t="shared" si="7"/>
         <v>?.1</v>
       </c>
     </row>
@@ -15188,7 +15190,7 @@
         <v>514</v>
       </c>
       <c r="I487" s="5" t="str">
-        <f>G487&amp;"."&amp;H487</f>
+        <f t="shared" si="7"/>
         <v>?.</v>
       </c>
     </row>
@@ -15215,7 +15217,7 @@
         <v>514</v>
       </c>
       <c r="I488" s="5" t="str">
-        <f>G488&amp;"."&amp;H488</f>
+        <f t="shared" si="7"/>
         <v>?.?</v>
       </c>
     </row>
@@ -15242,7 +15244,7 @@
         <v>514</v>
       </c>
       <c r="I489" s="5" t="str">
-        <f>G489&amp;"."&amp;H489</f>
+        <f t="shared" si="7"/>
         <v>?.?</v>
       </c>
     </row>
@@ -15269,7 +15271,7 @@
         <v>518</v>
       </c>
       <c r="I490" s="5" t="str">
-        <f>G490&amp;"."&amp;H490</f>
+        <f t="shared" si="7"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -15296,7 +15298,7 @@
         <v>518</v>
       </c>
       <c r="I491" s="5" t="str">
-        <f>G491&amp;"."&amp;H491</f>
+        <f t="shared" si="7"/>
         <v>?.NA</v>
       </c>
     </row>
@@ -15323,7 +15325,7 @@
         <v>518</v>
       </c>
       <c r="I492" s="5" t="str">
-        <f>G492&amp;"."&amp;H492</f>
+        <f t="shared" si="7"/>
         <v>2.NA</v>
       </c>
     </row>
@@ -15350,7 +15352,7 @@
         <v>1</v>
       </c>
       <c r="I493" s="5" t="str">
-        <f>G493&amp;"."&amp;H493</f>
+        <f t="shared" si="7"/>
         <v>?.1</v>
       </c>
     </row>
@@ -15377,7 +15379,7 @@
         <v>514</v>
       </c>
       <c r="I494" s="5" t="str">
-        <f>G494&amp;"."&amp;H494</f>
+        <f t="shared" si="7"/>
         <v>3.?</v>
       </c>
     </row>
@@ -15404,7 +15406,7 @@
         <v>518</v>
       </c>
       <c r="I495" s="5" t="str">
-        <f>G495&amp;"."&amp;H495</f>
+        <f t="shared" si="7"/>
         <v>1.NA</v>
       </c>
     </row>
@@ -15431,7 +15433,7 @@
         <v>518</v>
       </c>
       <c r="I496" s="5" t="str">
-        <f>G496&amp;"."&amp;H496</f>
+        <f t="shared" si="7"/>
         <v>1.NA</v>
       </c>
     </row>
@@ -15458,7 +15460,7 @@
         <v>1</v>
       </c>
       <c r="I497" s="5" t="str">
-        <f>G497&amp;"."&amp;H497</f>
+        <f t="shared" si="7"/>
         <v>?.1</v>
       </c>
     </row>
@@ -15485,7 +15487,7 @@
         <v>1</v>
       </c>
       <c r="I498" s="5" t="str">
-        <f>G498&amp;"."&amp;H498</f>
+        <f t="shared" si="7"/>
         <v>?.1</v>
       </c>
     </row>
@@ -15512,7 +15514,7 @@
         <v>1</v>
       </c>
       <c r="I499" s="5" t="str">
-        <f>G499&amp;"."&amp;H499</f>
+        <f t="shared" si="7"/>
         <v>?.1</v>
       </c>
     </row>
@@ -15539,7 +15541,7 @@
         <v>3</v>
       </c>
       <c r="I500" s="5" t="str">
-        <f>G500&amp;"."&amp;H500</f>
+        <f t="shared" si="7"/>
         <v>1.3</v>
       </c>
     </row>
@@ -15566,7 +15568,7 @@
         <v>3</v>
       </c>
       <c r="I501" s="5" t="str">
-        <f>G501&amp;"."&amp;H501</f>
+        <f t="shared" si="7"/>
         <v>?.3</v>
       </c>
     </row>
@@ -15593,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="I502" s="5" t="str">
-        <f>G502&amp;"."&amp;H502</f>
+        <f t="shared" si="7"/>
         <v>?.1</v>
       </c>
     </row>
@@ -15620,7 +15622,7 @@
         <v>1</v>
       </c>
       <c r="I503" s="5" t="str">
-        <f>G503&amp;"."&amp;H503</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
       <c r="J503" t="s">
@@ -15650,7 +15652,7 @@
         <v>514</v>
       </c>
       <c r="I504" s="5" t="str">
-        <f>G504&amp;"."&amp;H504</f>
+        <f t="shared" si="7"/>
         <v>1.?</v>
       </c>
     </row>
@@ -15677,7 +15679,7 @@
         <v>1</v>
       </c>
       <c r="I505" s="5" t="str">
-        <f>G505&amp;"."&amp;H505</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -15704,7 +15706,7 @@
         <v>1</v>
       </c>
       <c r="I506" s="5" t="str">
-        <f>G506&amp;"."&amp;H506</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -15731,7 +15733,7 @@
         <v>1</v>
       </c>
       <c r="I507" s="5" t="str">
-        <f>G507&amp;"."&amp;H507</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -15758,7 +15760,7 @@
         <v>1</v>
       </c>
       <c r="I508" s="5" t="str">
-        <f>G508&amp;"."&amp;H508</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -15785,7 +15787,7 @@
         <v>1</v>
       </c>
       <c r="I509" s="5" t="str">
-        <f>G509&amp;"."&amp;H509</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -15812,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="I510" s="5" t="str">
-        <f>G510&amp;"."&amp;H510</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -15839,7 +15841,7 @@
         <v>1</v>
       </c>
       <c r="I511" s="5" t="str">
-        <f>G511&amp;"."&amp;H511</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -15866,7 +15868,7 @@
         <v>1</v>
       </c>
       <c r="I512" s="5" t="str">
-        <f>G512&amp;"."&amp;H512</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -15893,7 +15895,7 @@
         <v>1</v>
       </c>
       <c r="I513" s="5" t="str">
-        <f>G513&amp;"."&amp;H513</f>
+        <f t="shared" si="7"/>
         <v>1.1</v>
       </c>
     </row>
@@ -15920,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="I514" s="5" t="str">
-        <f>G514&amp;"."&amp;H514</f>
+        <f t="shared" ref="I514:I577" si="8">G514&amp;"."&amp;H514</f>
         <v>1.1</v>
       </c>
     </row>
@@ -15947,7 +15949,7 @@
         <v>1</v>
       </c>
       <c r="I515" s="5" t="str">
-        <f>G515&amp;"."&amp;H515</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -15974,7 +15976,7 @@
         <v>1</v>
       </c>
       <c r="I516" s="5" t="str">
-        <f>G516&amp;"."&amp;H516</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16001,7 +16003,7 @@
         <v>1</v>
       </c>
       <c r="I517" s="5" t="str">
-        <f>G517&amp;"."&amp;H517</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16028,7 +16030,7 @@
         <v>1</v>
       </c>
       <c r="I518" s="5" t="str">
-        <f>G518&amp;"."&amp;H518</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16055,7 +16057,7 @@
         <v>1</v>
       </c>
       <c r="I519" s="5" t="str">
-        <f>G519&amp;"."&amp;H519</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16082,7 +16084,7 @@
         <v>1</v>
       </c>
       <c r="I520" s="5" t="str">
-        <f>G520&amp;"."&amp;H520</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16109,7 +16111,7 @@
         <v>1</v>
       </c>
       <c r="I521" s="5" t="str">
-        <f>G521&amp;"."&amp;H521</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16136,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="I522" s="5" t="str">
-        <f>G522&amp;"."&amp;H522</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16163,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="I523" s="5" t="str">
-        <f>G523&amp;"."&amp;H523</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16190,7 +16192,7 @@
         <v>1</v>
       </c>
       <c r="I524" s="5" t="str">
-        <f>G524&amp;"."&amp;H524</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16217,7 +16219,7 @@
         <v>1</v>
       </c>
       <c r="I525" s="5" t="str">
-        <f>G525&amp;"."&amp;H525</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16244,7 +16246,7 @@
         <v>1</v>
       </c>
       <c r="I526" s="5" t="str">
-        <f>G526&amp;"."&amp;H526</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16271,7 +16273,7 @@
         <v>1</v>
       </c>
       <c r="I527" s="5" t="str">
-        <f>G527&amp;"."&amp;H527</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16298,7 +16300,7 @@
         <v>1</v>
       </c>
       <c r="I528" s="5" t="str">
-        <f>G528&amp;"."&amp;H528</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16325,7 +16327,7 @@
         <v>1</v>
       </c>
       <c r="I529" s="5" t="str">
-        <f>G529&amp;"."&amp;H529</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16352,7 +16354,7 @@
         <v>1</v>
       </c>
       <c r="I530" s="5" t="str">
-        <f>G530&amp;"."&amp;H530</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16379,7 +16381,7 @@
         <v>1</v>
       </c>
       <c r="I531" s="5" t="str">
-        <f>G531&amp;"."&amp;H531</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16406,7 +16408,7 @@
         <v>1</v>
       </c>
       <c r="I532" s="5" t="str">
-        <f>G532&amp;"."&amp;H532</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16433,7 +16435,7 @@
         <v>1</v>
       </c>
       <c r="I533" s="5" t="str">
-        <f>G533&amp;"."&amp;H533</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16460,7 +16462,7 @@
         <v>1</v>
       </c>
       <c r="I534" s="5" t="str">
-        <f>G534&amp;"."&amp;H534</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16487,7 +16489,7 @@
         <v>1</v>
       </c>
       <c r="I535" s="5" t="str">
-        <f>G535&amp;"."&amp;H535</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16514,7 +16516,7 @@
         <v>1</v>
       </c>
       <c r="I536" s="5" t="str">
-        <f>G536&amp;"."&amp;H536</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16541,7 +16543,7 @@
         <v>1</v>
       </c>
       <c r="I537" s="5" t="str">
-        <f>G537&amp;"."&amp;H537</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16568,7 +16570,7 @@
         <v>1</v>
       </c>
       <c r="I538" s="5" t="str">
-        <f>G538&amp;"."&amp;H538</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16595,7 +16597,7 @@
         <v>1</v>
       </c>
       <c r="I539" s="5" t="str">
-        <f>G539&amp;"."&amp;H539</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16622,7 +16624,7 @@
         <v>1</v>
       </c>
       <c r="I540" s="5" t="str">
-        <f>G540&amp;"."&amp;H540</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16649,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="I541" s="5" t="str">
-        <f>G541&amp;"."&amp;H541</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16676,7 +16678,7 @@
         <v>1</v>
       </c>
       <c r="I542" s="5" t="str">
-        <f>G542&amp;"."&amp;H542</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16703,7 +16705,7 @@
         <v>1</v>
       </c>
       <c r="I543" s="5" t="str">
-        <f>G543&amp;"."&amp;H543</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16730,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="I544" s="5" t="str">
-        <f>G544&amp;"."&amp;H544</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16757,7 +16759,7 @@
         <v>1</v>
       </c>
       <c r="I545" s="5" t="str">
-        <f>G545&amp;"."&amp;H545</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16784,7 +16786,7 @@
         <v>1</v>
       </c>
       <c r="I546" s="5" t="str">
-        <f>G546&amp;"."&amp;H546</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16811,7 +16813,7 @@
         <v>1</v>
       </c>
       <c r="I547" s="5" t="str">
-        <f>G547&amp;"."&amp;H547</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16838,7 +16840,7 @@
         <v>1</v>
       </c>
       <c r="I548" s="5" t="str">
-        <f>G548&amp;"."&amp;H548</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -16865,7 +16867,7 @@
         <v>1</v>
       </c>
       <c r="I549" s="5" t="str">
-        <f>G549&amp;"."&amp;H549</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16892,7 +16894,7 @@
         <v>1</v>
       </c>
       <c r="I550" s="5" t="str">
-        <f>G550&amp;"."&amp;H550</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16919,7 +16921,7 @@
         <v>1</v>
       </c>
       <c r="I551" s="5" t="str">
-        <f>G551&amp;"."&amp;H551</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16946,7 +16948,7 @@
         <v>1</v>
       </c>
       <c r="I552" s="5" t="str">
-        <f>G552&amp;"."&amp;H552</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -16973,7 +16975,7 @@
         <v>1</v>
       </c>
       <c r="I553" s="5" t="str">
-        <f>G553&amp;"."&amp;H553</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -17000,7 +17002,7 @@
         <v>1</v>
       </c>
       <c r="I554" s="5" t="str">
-        <f>G554&amp;"."&amp;H554</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -17027,7 +17029,7 @@
         <v>1</v>
       </c>
       <c r="I555" s="5" t="str">
-        <f>G555&amp;"."&amp;H555</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -17054,7 +17056,7 @@
         <v>1</v>
       </c>
       <c r="I556" s="5" t="str">
-        <f>G556&amp;"."&amp;H556</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -17081,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="I557" s="5" t="str">
-        <f>G557&amp;"."&amp;H557</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -17108,7 +17110,7 @@
         <v>1</v>
       </c>
       <c r="I558" s="5" t="str">
-        <f>G558&amp;"."&amp;H558</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -17135,7 +17137,7 @@
         <v>1</v>
       </c>
       <c r="I559" s="5" t="str">
-        <f>G559&amp;"."&amp;H559</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -17162,7 +17164,7 @@
         <v>1</v>
       </c>
       <c r="I560" s="5" t="str">
-        <f>G560&amp;"."&amp;H560</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -17189,7 +17191,7 @@
         <v>514</v>
       </c>
       <c r="I561" s="5" t="str">
-        <f>G561&amp;"."&amp;H561</f>
+        <f t="shared" si="8"/>
         <v>1.?</v>
       </c>
     </row>
@@ -17216,7 +17218,7 @@
         <v>1</v>
       </c>
       <c r="I562" s="5" t="str">
-        <f>G562&amp;"."&amp;H562</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -17243,7 +17245,7 @@
         <v>1</v>
       </c>
       <c r="I563" s="5" t="str">
-        <f>G563&amp;"."&amp;H563</f>
+        <f t="shared" si="8"/>
         <v>1.1</v>
       </c>
     </row>
@@ -17270,7 +17272,7 @@
         <v>1</v>
       </c>
       <c r="I564" s="5" t="str">
-        <f>G564&amp;"."&amp;H564</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -17297,7 +17299,7 @@
         <v>1</v>
       </c>
       <c r="I565" s="5" t="str">
-        <f>G565&amp;"."&amp;H565</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -17324,7 +17326,7 @@
         <v>1</v>
       </c>
       <c r="I566" s="5" t="str">
-        <f>G566&amp;"."&amp;H566</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -17351,7 +17353,7 @@
         <v>1</v>
       </c>
       <c r="I567" s="5" t="str">
-        <f>G567&amp;"."&amp;H567</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -17378,7 +17380,7 @@
         <v>1</v>
       </c>
       <c r="I568" s="5" t="str">
-        <f>G568&amp;"."&amp;H568</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -17405,7 +17407,7 @@
         <v>1</v>
       </c>
       <c r="I569" s="5" t="str">
-        <f>G569&amp;"."&amp;H569</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -17432,7 +17434,7 @@
         <v>1</v>
       </c>
       <c r="I570" s="5" t="str">
-        <f>G570&amp;"."&amp;H570</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -17459,7 +17461,7 @@
         <v>1</v>
       </c>
       <c r="I571" s="5" t="str">
-        <f>G571&amp;"."&amp;H571</f>
+        <f t="shared" si="8"/>
         <v>?.1</v>
       </c>
     </row>
@@ -17483,7 +17485,7 @@
         <v>514</v>
       </c>
       <c r="I572" s="5" t="str">
-        <f>G572&amp;"."&amp;H572</f>
+        <f t="shared" si="8"/>
         <v>0.?</v>
       </c>
     </row>
@@ -17510,7 +17512,7 @@
         <v>514</v>
       </c>
       <c r="I573" s="5" t="str">
-        <f>G573&amp;"."&amp;H573</f>
+        <f t="shared" si="8"/>
         <v>1.?</v>
       </c>
     </row>
@@ -17537,7 +17539,7 @@
         <v>514</v>
       </c>
       <c r="I574" s="5" t="str">
-        <f>G574&amp;"."&amp;H574</f>
+        <f t="shared" si="8"/>
         <v>3.?</v>
       </c>
     </row>
@@ -17564,7 +17566,7 @@
         <v>514</v>
       </c>
       <c r="I575" s="5" t="str">
-        <f>G575&amp;"."&amp;H575</f>
+        <f t="shared" si="8"/>
         <v>3.?</v>
       </c>
     </row>
@@ -17591,7 +17593,7 @@
         <v>514</v>
       </c>
       <c r="I576" s="5" t="str">
-        <f>G576&amp;"."&amp;H576</f>
+        <f t="shared" si="8"/>
         <v>3.?</v>
       </c>
     </row>
@@ -17618,7 +17620,7 @@
         <v>514</v>
       </c>
       <c r="I577" s="5" t="str">
-        <f>G577&amp;"."&amp;H577</f>
+        <f t="shared" si="8"/>
         <v>3.?</v>
       </c>
     </row>
@@ -17645,7 +17647,7 @@
         <v>514</v>
       </c>
       <c r="I578" s="5" t="str">
-        <f>G578&amp;"."&amp;H578</f>
+        <f t="shared" ref="I578:I641" si="9">G578&amp;"."&amp;H578</f>
         <v>1.?</v>
       </c>
       <c r="J578" t="s">
@@ -17675,7 +17677,7 @@
         <v>514</v>
       </c>
       <c r="I579" s="5" t="str">
-        <f>G579&amp;"."&amp;H579</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
       <c r="J579" t="s">
@@ -17705,7 +17707,7 @@
         <v>514</v>
       </c>
       <c r="I580" s="5" t="str">
-        <f>G580&amp;"."&amp;H580</f>
+        <f t="shared" si="9"/>
         <v>?.?</v>
       </c>
       <c r="J580" t="s">
@@ -17735,7 +17737,7 @@
         <v>514</v>
       </c>
       <c r="I581" s="5" t="str">
-        <f>G581&amp;"."&amp;H581</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
       <c r="J581" t="s">
@@ -17765,7 +17767,7 @@
         <v>514</v>
       </c>
       <c r="I582" s="5" t="str">
-        <f>G582&amp;"."&amp;H582</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
       <c r="J582" t="s">
@@ -17795,7 +17797,7 @@
         <v>514</v>
       </c>
       <c r="I583" s="5" t="str">
-        <f>G583&amp;"."&amp;H583</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
       <c r="J583" t="s">
@@ -17825,7 +17827,7 @@
         <v>514</v>
       </c>
       <c r="I584" s="5" t="str">
-        <f>G584&amp;"."&amp;H584</f>
+        <f t="shared" si="9"/>
         <v>?.?</v>
       </c>
       <c r="J584" t="s">
@@ -17855,7 +17857,7 @@
         <v>514</v>
       </c>
       <c r="I585" s="5" t="str">
-        <f>G585&amp;"."&amp;H585</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
       <c r="J585" t="s">
@@ -17885,7 +17887,7 @@
         <v>514</v>
       </c>
       <c r="I586" s="5" t="str">
-        <f>G586&amp;"."&amp;H586</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
       <c r="J586" t="s">
@@ -17915,7 +17917,7 @@
         <v>514</v>
       </c>
       <c r="I587" s="5" t="str">
-        <f>G587&amp;"."&amp;H587</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
       <c r="J587" t="s">
@@ -17945,7 +17947,7 @@
         <v>514</v>
       </c>
       <c r="I588" s="5" t="str">
-        <f>G588&amp;"."&amp;H588</f>
+        <f t="shared" si="9"/>
         <v>?.?</v>
       </c>
       <c r="J588" t="s">
@@ -17975,7 +17977,7 @@
         <v>514</v>
       </c>
       <c r="I589" s="5" t="str">
-        <f>G589&amp;"."&amp;H589</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
       <c r="J589" t="s">
@@ -18005,7 +18007,7 @@
         <v>3</v>
       </c>
       <c r="I590" s="5" t="str">
-        <f>G590&amp;"."&amp;H590</f>
+        <f t="shared" si="9"/>
         <v>1.3</v>
       </c>
     </row>
@@ -18032,7 +18034,7 @@
         <v>514</v>
       </c>
       <c r="I591" s="5" t="str">
-        <f>G591&amp;"."&amp;H591</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
     </row>
@@ -18059,7 +18061,7 @@
         <v>1</v>
       </c>
       <c r="I592" s="5" t="str">
-        <f>G592&amp;"."&amp;H592</f>
+        <f t="shared" si="9"/>
         <v>?.1</v>
       </c>
     </row>
@@ -18086,7 +18088,7 @@
         <v>2</v>
       </c>
       <c r="I593" s="5" t="str">
-        <f>G593&amp;"."&amp;H593</f>
+        <f t="shared" si="9"/>
         <v>?.2</v>
       </c>
     </row>
@@ -18113,7 +18115,7 @@
         <v>2</v>
       </c>
       <c r="I594" s="5" t="str">
-        <f>G594&amp;"."&amp;H594</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -18140,7 +18142,7 @@
         <v>2</v>
       </c>
       <c r="I595" s="5" t="str">
-        <f>G595&amp;"."&amp;H595</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -18167,7 +18169,7 @@
         <v>2</v>
       </c>
       <c r="I596" s="5" t="str">
-        <f>G596&amp;"."&amp;H596</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -18194,7 +18196,7 @@
         <v>2</v>
       </c>
       <c r="I597" s="5" t="str">
-        <f>G597&amp;"."&amp;H597</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -18221,7 +18223,7 @@
         <v>2</v>
       </c>
       <c r="I598" s="5" t="str">
-        <f>G598&amp;"."&amp;H598</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -18248,7 +18250,7 @@
         <v>2</v>
       </c>
       <c r="I599" s="5" t="str">
-        <f>G599&amp;"."&amp;H599</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -18275,7 +18277,7 @@
         <v>2</v>
       </c>
       <c r="I600" s="5" t="str">
-        <f>G600&amp;"."&amp;H600</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -18302,7 +18304,7 @@
         <v>2</v>
       </c>
       <c r="I601" s="5" t="str">
-        <f>G601&amp;"."&amp;H601</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -18326,7 +18328,7 @@
         <v>2</v>
       </c>
       <c r="I602" s="5" t="str">
-        <f>G602&amp;"."&amp;H602</f>
+        <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
     </row>
@@ -18353,7 +18355,7 @@
         <v>2</v>
       </c>
       <c r="I603" s="5" t="str">
-        <f>G603&amp;"."&amp;H603</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -18380,7 +18382,7 @@
         <v>2</v>
       </c>
       <c r="I604" s="5" t="str">
-        <f>G604&amp;"."&amp;H604</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -18407,7 +18409,7 @@
         <v>2</v>
       </c>
       <c r="I605" s="5" t="str">
-        <f>G605&amp;"."&amp;H605</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -18434,7 +18436,7 @@
         <v>2</v>
       </c>
       <c r="I606" s="5" t="str">
-        <f>G606&amp;"."&amp;H606</f>
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
     </row>
@@ -18461,7 +18463,7 @@
         <v>2</v>
       </c>
       <c r="I607" s="5" t="str">
-        <f>G607&amp;"."&amp;H607</f>
+        <f t="shared" si="9"/>
         <v>?.2</v>
       </c>
     </row>
@@ -18488,7 +18490,7 @@
         <v>2</v>
       </c>
       <c r="I608" s="5" t="str">
-        <f>G608&amp;"."&amp;H608</f>
+        <f t="shared" si="9"/>
         <v>?.2</v>
       </c>
     </row>
@@ -18515,7 +18517,7 @@
         <v>2</v>
       </c>
       <c r="I609" s="5" t="str">
-        <f>G609&amp;"."&amp;H609</f>
+        <f t="shared" si="9"/>
         <v>?.2</v>
       </c>
     </row>
@@ -18542,7 +18544,7 @@
         <v>2</v>
       </c>
       <c r="I610" s="5" t="str">
-        <f>G610&amp;"."&amp;H610</f>
+        <f t="shared" si="9"/>
         <v>?.2</v>
       </c>
     </row>
@@ -18566,7 +18568,7 @@
         <v>2</v>
       </c>
       <c r="I611" s="5" t="str">
-        <f>G611&amp;"."&amp;H611</f>
+        <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
     </row>
@@ -18593,7 +18595,7 @@
         <v>2</v>
       </c>
       <c r="I612" s="5" t="str">
-        <f>G612&amp;"."&amp;H612</f>
+        <f t="shared" si="9"/>
         <v>?.2</v>
       </c>
     </row>
@@ -18620,7 +18622,7 @@
         <v>2</v>
       </c>
       <c r="I613" s="5" t="str">
-        <f>G613&amp;"."&amp;H613</f>
+        <f t="shared" si="9"/>
         <v>?.2</v>
       </c>
     </row>
@@ -18647,7 +18649,7 @@
         <v>2</v>
       </c>
       <c r="I614" s="5" t="str">
-        <f>G614&amp;"."&amp;H614</f>
+        <f t="shared" si="9"/>
         <v>?.2</v>
       </c>
     </row>
@@ -18671,7 +18673,7 @@
         <v>514</v>
       </c>
       <c r="I615" s="5" t="str">
-        <f>G615&amp;"."&amp;H615</f>
+        <f t="shared" si="9"/>
         <v>0.?</v>
       </c>
     </row>
@@ -18698,7 +18700,7 @@
         <v>514</v>
       </c>
       <c r="I616" s="5" t="str">
-        <f>G616&amp;"."&amp;H616</f>
+        <f t="shared" si="9"/>
         <v>?.?</v>
       </c>
     </row>
@@ -18725,7 +18727,7 @@
         <v>514</v>
       </c>
       <c r="I617" s="5" t="str">
-        <f>G617&amp;"."&amp;H617</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
     </row>
@@ -18752,7 +18754,7 @@
         <v>514</v>
       </c>
       <c r="I618" s="5" t="str">
-        <f>G618&amp;"."&amp;H618</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
     </row>
@@ -18779,7 +18781,7 @@
         <v>3</v>
       </c>
       <c r="I619" s="5" t="str">
-        <f>G619&amp;"."&amp;H619</f>
+        <f t="shared" si="9"/>
         <v>?.3</v>
       </c>
     </row>
@@ -18806,7 +18808,7 @@
         <v>514</v>
       </c>
       <c r="I620" s="5" t="str">
-        <f>G620&amp;"."&amp;H620</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
     </row>
@@ -18833,7 +18835,7 @@
         <v>514</v>
       </c>
       <c r="I621" s="5" t="str">
-        <f>G621&amp;"."&amp;H621</f>
+        <f t="shared" si="9"/>
         <v>3.?</v>
       </c>
     </row>
@@ -18860,7 +18862,7 @@
         <v>514</v>
       </c>
       <c r="I622" s="5" t="str">
-        <f>G622&amp;"."&amp;H622</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
     </row>
@@ -18887,7 +18889,7 @@
         <v>514</v>
       </c>
       <c r="I623" s="5" t="str">
-        <f>G623&amp;"."&amp;H623</f>
+        <f t="shared" si="9"/>
         <v>2.?</v>
       </c>
     </row>
@@ -18914,7 +18916,7 @@
         <v>514</v>
       </c>
       <c r="I624" s="5" t="str">
-        <f>G624&amp;"."&amp;H624</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
     </row>
@@ -18941,7 +18943,7 @@
         <v>514</v>
       </c>
       <c r="I625" s="5" t="str">
-        <f>G625&amp;"."&amp;H625</f>
+        <f t="shared" si="9"/>
         <v>?.?</v>
       </c>
     </row>
@@ -18968,7 +18970,7 @@
         <v>514</v>
       </c>
       <c r="I626" s="5" t="str">
-        <f>G626&amp;"."&amp;H626</f>
+        <f t="shared" si="9"/>
         <v>?.?</v>
       </c>
     </row>
@@ -18992,7 +18994,7 @@
         <v>514</v>
       </c>
       <c r="I627" s="5" t="str">
-        <f>G627&amp;"."&amp;H627</f>
+        <f t="shared" si="9"/>
         <v>0.?</v>
       </c>
     </row>
@@ -19019,7 +19021,7 @@
         <v>514</v>
       </c>
       <c r="I628" s="5" t="str">
-        <f>G628&amp;"."&amp;H628</f>
+        <f t="shared" si="9"/>
         <v>3.?</v>
       </c>
     </row>
@@ -19046,7 +19048,7 @@
         <v>514</v>
       </c>
       <c r="I629" s="5" t="str">
-        <f>G629&amp;"."&amp;H629</f>
+        <f t="shared" si="9"/>
         <v>3.?</v>
       </c>
     </row>
@@ -19073,7 +19075,7 @@
         <v>514</v>
       </c>
       <c r="I630" s="5" t="str">
-        <f>G630&amp;"."&amp;H630</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
     </row>
@@ -19100,7 +19102,7 @@
         <v>514</v>
       </c>
       <c r="I631" s="5" t="str">
-        <f>G631&amp;"."&amp;H631</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
     </row>
@@ -19127,7 +19129,7 @@
         <v>514</v>
       </c>
       <c r="I632" s="5" t="str">
-        <f>G632&amp;"."&amp;H632</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
     </row>
@@ -19154,7 +19156,7 @@
         <v>514</v>
       </c>
       <c r="I633" s="5" t="str">
-        <f>G633&amp;"."&amp;H633</f>
+        <f t="shared" si="9"/>
         <v>?.?</v>
       </c>
     </row>
@@ -19181,7 +19183,7 @@
         <v>514</v>
       </c>
       <c r="I634" s="5" t="str">
-        <f>G634&amp;"."&amp;H634</f>
+        <f t="shared" si="9"/>
         <v>?.?</v>
       </c>
     </row>
@@ -19208,7 +19210,7 @@
         <v>514</v>
       </c>
       <c r="I635" s="5" t="str">
-        <f>G635&amp;"."&amp;H635</f>
+        <f t="shared" si="9"/>
         <v>?.?</v>
       </c>
     </row>
@@ -19235,7 +19237,7 @@
         <v>514</v>
       </c>
       <c r="I636" s="5" t="str">
-        <f>G636&amp;"."&amp;H636</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
     </row>
@@ -19262,7 +19264,7 @@
         <v>514</v>
       </c>
       <c r="I637" s="5" t="str">
-        <f>G637&amp;"."&amp;H637</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
     </row>
@@ -19289,7 +19291,7 @@
         <v>514</v>
       </c>
       <c r="I638" s="5" t="str">
-        <f>G638&amp;"."&amp;H638</f>
+        <f t="shared" si="9"/>
         <v>3.?</v>
       </c>
     </row>
@@ -19316,7 +19318,7 @@
         <v>514</v>
       </c>
       <c r="I639" s="5" t="str">
-        <f>G639&amp;"."&amp;H639</f>
+        <f t="shared" si="9"/>
         <v>3.?</v>
       </c>
     </row>
@@ -19343,7 +19345,7 @@
         <v>514</v>
       </c>
       <c r="I640" s="5" t="str">
-        <f>G640&amp;"."&amp;H640</f>
+        <f t="shared" si="9"/>
         <v>1.?</v>
       </c>
     </row>
@@ -19370,7 +19372,7 @@
         <v>514</v>
       </c>
       <c r="I641" s="5" t="str">
-        <f>G641&amp;"."&amp;H641</f>
+        <f t="shared" si="9"/>
         <v>?.?</v>
       </c>
     </row>
@@ -19397,7 +19399,7 @@
         <v>514</v>
       </c>
       <c r="I642" s="5" t="str">
-        <f>G642&amp;"."&amp;H642</f>
+        <f t="shared" ref="I642:I705" si="10">G642&amp;"."&amp;H642</f>
         <v>?.?</v>
       </c>
     </row>
@@ -19421,7 +19423,7 @@
         <v>514</v>
       </c>
       <c r="I643" s="5" t="str">
-        <f>G643&amp;"."&amp;H643</f>
+        <f t="shared" si="10"/>
         <v>0.?</v>
       </c>
     </row>
@@ -19448,7 +19450,7 @@
         <v>514</v>
       </c>
       <c r="I644" s="5" t="str">
-        <f>G644&amp;"."&amp;H644</f>
+        <f t="shared" si="10"/>
         <v>3.?</v>
       </c>
     </row>
@@ -19475,7 +19477,7 @@
         <v>514</v>
       </c>
       <c r="I645" s="5" t="str">
-        <f>G645&amp;"."&amp;H645</f>
+        <f t="shared" si="10"/>
         <v>3.?</v>
       </c>
     </row>
@@ -19502,7 +19504,7 @@
         <v>514</v>
       </c>
       <c r="I646" s="5" t="str">
-        <f>G646&amp;"."&amp;H646</f>
+        <f t="shared" si="10"/>
         <v>3.?</v>
       </c>
     </row>
@@ -19529,7 +19531,7 @@
         <v>514</v>
       </c>
       <c r="I647" s="5" t="str">
-        <f>G647&amp;"."&amp;H647</f>
+        <f t="shared" si="10"/>
         <v>3.?</v>
       </c>
     </row>
@@ -19556,7 +19558,7 @@
         <v>514</v>
       </c>
       <c r="I648" s="5" t="str">
-        <f>G648&amp;"."&amp;H648</f>
+        <f t="shared" si="10"/>
         <v>3.?</v>
       </c>
     </row>
@@ -19580,7 +19582,7 @@
         <v>514</v>
       </c>
       <c r="I649" s="5" t="str">
-        <f>G649&amp;"."&amp;H649</f>
+        <f t="shared" si="10"/>
         <v>0.?</v>
       </c>
     </row>
@@ -19607,7 +19609,7 @@
         <v>514</v>
       </c>
       <c r="I650" s="5" t="str">
-        <f>G650&amp;"."&amp;H650</f>
+        <f t="shared" si="10"/>
         <v>1.?</v>
       </c>
     </row>
@@ -19634,7 +19636,7 @@
         <v>514</v>
       </c>
       <c r="I651" s="5" t="str">
-        <f>G651&amp;"."&amp;H651</f>
+        <f t="shared" si="10"/>
         <v>1.?</v>
       </c>
     </row>
@@ -19661,7 +19663,7 @@
         <v>514</v>
       </c>
       <c r="I652" s="5" t="str">
-        <f>G652&amp;"."&amp;H652</f>
+        <f t="shared" si="10"/>
         <v>?.?</v>
       </c>
     </row>
@@ -19685,7 +19687,7 @@
         <v>514</v>
       </c>
       <c r="I653" s="5" t="str">
-        <f>G653&amp;"."&amp;H653</f>
+        <f t="shared" si="10"/>
         <v>0.?</v>
       </c>
     </row>
@@ -19709,7 +19711,7 @@
         <v>514</v>
       </c>
       <c r="I654" s="5" t="str">
-        <f>G654&amp;"."&amp;H654</f>
+        <f t="shared" si="10"/>
         <v>0.?</v>
       </c>
     </row>
@@ -19736,7 +19738,7 @@
         <v>1</v>
       </c>
       <c r="I655" s="5" t="str">
-        <f>G655&amp;"."&amp;H655</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -19763,7 +19765,7 @@
         <v>1</v>
       </c>
       <c r="I656" s="5" t="str">
-        <f>G656&amp;"."&amp;H656</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -19790,7 +19792,7 @@
         <v>1</v>
       </c>
       <c r="I657" s="5" t="str">
-        <f>G657&amp;"."&amp;H657</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -19817,7 +19819,7 @@
         <v>1</v>
       </c>
       <c r="I658" s="5" t="str">
-        <f>G658&amp;"."&amp;H658</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -19844,7 +19846,7 @@
         <v>1</v>
       </c>
       <c r="I659" s="5" t="str">
-        <f>G659&amp;"."&amp;H659</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -19871,7 +19873,7 @@
         <v>1</v>
       </c>
       <c r="I660" s="5" t="str">
-        <f>G660&amp;"."&amp;H660</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -19898,7 +19900,7 @@
         <v>1</v>
       </c>
       <c r="I661" s="5" t="str">
-        <f>G661&amp;"."&amp;H661</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -19925,7 +19927,7 @@
         <v>1</v>
       </c>
       <c r="I662" s="5" t="str">
-        <f>G662&amp;"."&amp;H662</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -19952,7 +19954,7 @@
         <v>514</v>
       </c>
       <c r="I663" s="5" t="str">
-        <f>G663&amp;"."&amp;H663</f>
+        <f t="shared" si="10"/>
         <v>1.?</v>
       </c>
     </row>
@@ -19979,7 +19981,7 @@
         <v>514</v>
       </c>
       <c r="I664" s="5" t="str">
-        <f>G664&amp;"."&amp;H664</f>
+        <f t="shared" si="10"/>
         <v>2.?</v>
       </c>
     </row>
@@ -20006,7 +20008,7 @@
         <v>1</v>
       </c>
       <c r="I665" s="5" t="str">
-        <f>G665&amp;"."&amp;H665</f>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
     </row>
@@ -20033,7 +20035,7 @@
         <v>1</v>
       </c>
       <c r="I666" s="5" t="str">
-        <f>G666&amp;"."&amp;H666</f>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
     </row>
@@ -20060,7 +20062,7 @@
         <v>1</v>
       </c>
       <c r="I667" s="5" t="str">
-        <f>G667&amp;"."&amp;H667</f>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
     </row>
@@ -20087,7 +20089,7 @@
         <v>1</v>
       </c>
       <c r="I668" s="5" t="str">
-        <f>G668&amp;"."&amp;H668</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20114,7 +20116,7 @@
         <v>514</v>
       </c>
       <c r="I669" s="5" t="str">
-        <f>G669&amp;"."&amp;H669</f>
+        <f t="shared" si="10"/>
         <v>?.?</v>
       </c>
     </row>
@@ -20141,7 +20143,7 @@
         <v>1</v>
       </c>
       <c r="I670" s="5" t="str">
-        <f>G670&amp;"."&amp;H670</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20168,7 +20170,7 @@
         <v>514</v>
       </c>
       <c r="I671" s="5" t="str">
-        <f>G671&amp;"."&amp;H671</f>
+        <f t="shared" si="10"/>
         <v>?.?</v>
       </c>
     </row>
@@ -20195,7 +20197,7 @@
         <v>514</v>
       </c>
       <c r="I672" s="5" t="str">
-        <f>G672&amp;"."&amp;H672</f>
+        <f t="shared" si="10"/>
         <v>1.?</v>
       </c>
     </row>
@@ -20222,7 +20224,7 @@
         <v>514</v>
       </c>
       <c r="I673" s="5" t="str">
-        <f>G673&amp;"."&amp;H673</f>
+        <f t="shared" si="10"/>
         <v>2.?</v>
       </c>
     </row>
@@ -20249,7 +20251,7 @@
         <v>1</v>
       </c>
       <c r="I674" s="5" t="str">
-        <f>G674&amp;"."&amp;H674</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
     </row>
@@ -20273,7 +20275,7 @@
         <v>1</v>
       </c>
       <c r="I675" s="5" t="str">
-        <f>G675&amp;"."&amp;H675</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
     </row>
@@ -20297,7 +20299,7 @@
         <v>1</v>
       </c>
       <c r="I676" s="5" t="str">
-        <f>G676&amp;"."&amp;H676</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
     </row>
@@ -20324,7 +20326,7 @@
         <v>1</v>
       </c>
       <c r="I677" s="5" t="str">
-        <f>G677&amp;"."&amp;H677</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20351,7 +20353,7 @@
         <v>514</v>
       </c>
       <c r="I678" s="5" t="str">
-        <f>G678&amp;"."&amp;H678</f>
+        <f t="shared" si="10"/>
         <v>?.?</v>
       </c>
     </row>
@@ -20378,7 +20380,7 @@
         <v>1</v>
       </c>
       <c r="I679" s="5" t="str">
-        <f>G679&amp;"."&amp;H679</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20405,7 +20407,7 @@
         <v>1</v>
       </c>
       <c r="I680" s="5" t="str">
-        <f>G680&amp;"."&amp;H680</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20432,7 +20434,7 @@
         <v>514</v>
       </c>
       <c r="I681" s="5" t="str">
-        <f>G681&amp;"."&amp;H681</f>
+        <f t="shared" si="10"/>
         <v>3.?</v>
       </c>
     </row>
@@ -20459,7 +20461,7 @@
         <v>1</v>
       </c>
       <c r="I682" s="5" t="str">
-        <f>G682&amp;"."&amp;H682</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20486,7 +20488,7 @@
         <v>1</v>
       </c>
       <c r="I683" s="5" t="str">
-        <f>G683&amp;"."&amp;H683</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20513,7 +20515,7 @@
         <v>1</v>
       </c>
       <c r="I684" s="5" t="str">
-        <f>G684&amp;"."&amp;H684</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20540,7 +20542,7 @@
         <v>1</v>
       </c>
       <c r="I685" s="5" t="str">
-        <f>G685&amp;"."&amp;H685</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20567,7 +20569,7 @@
         <v>1</v>
       </c>
       <c r="I686" s="5" t="str">
-        <f>G686&amp;"."&amp;H686</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20594,7 +20596,7 @@
         <v>1</v>
       </c>
       <c r="I687" s="5" t="str">
-        <f>G687&amp;"."&amp;H687</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20621,7 +20623,7 @@
         <v>1</v>
       </c>
       <c r="I688" s="5" t="str">
-        <f>G688&amp;"."&amp;H688</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20648,7 +20650,7 @@
         <v>514</v>
       </c>
       <c r="I689" s="5" t="str">
-        <f>G689&amp;"."&amp;H689</f>
+        <f t="shared" si="10"/>
         <v>?.?</v>
       </c>
     </row>
@@ -20672,7 +20674,7 @@
         <v>514</v>
       </c>
       <c r="I690" s="5" t="str">
-        <f>G690&amp;"."&amp;H690</f>
+        <f t="shared" si="10"/>
         <v>0.?</v>
       </c>
     </row>
@@ -20699,7 +20701,7 @@
         <v>514</v>
       </c>
       <c r="I691" s="5" t="str">
-        <f>G691&amp;"."&amp;H691</f>
+        <f t="shared" si="10"/>
         <v>?.?</v>
       </c>
     </row>
@@ -20726,7 +20728,7 @@
         <v>1</v>
       </c>
       <c r="I692" s="5" t="str">
-        <f>G692&amp;"."&amp;H692</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20753,7 +20755,7 @@
         <v>1</v>
       </c>
       <c r="I693" s="5" t="str">
-        <f>G693&amp;"."&amp;H693</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20780,7 +20782,7 @@
         <v>1</v>
       </c>
       <c r="I694" s="5" t="str">
-        <f>G694&amp;"."&amp;H694</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20807,7 +20809,7 @@
         <v>1</v>
       </c>
       <c r="I695" s="5" t="str">
-        <f>G695&amp;"."&amp;H695</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20834,7 +20836,7 @@
         <v>1</v>
       </c>
       <c r="I696" s="5" t="str">
-        <f>G696&amp;"."&amp;H696</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20861,7 +20863,7 @@
         <v>1</v>
       </c>
       <c r="I697" s="5" t="str">
-        <f>G697&amp;"."&amp;H697</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20888,7 +20890,7 @@
         <v>1</v>
       </c>
       <c r="I698" s="5" t="str">
-        <f>G698&amp;"."&amp;H698</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20915,7 +20917,7 @@
         <v>1</v>
       </c>
       <c r="I699" s="5" t="str">
-        <f>G699&amp;"."&amp;H699</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20942,7 +20944,7 @@
         <v>1</v>
       </c>
       <c r="I700" s="5" t="str">
-        <f>G700&amp;"."&amp;H700</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20969,7 +20971,7 @@
         <v>1</v>
       </c>
       <c r="I701" s="5" t="str">
-        <f>G701&amp;"."&amp;H701</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -20996,7 +20998,7 @@
         <v>1</v>
       </c>
       <c r="I702" s="5" t="str">
-        <f>G702&amp;"."&amp;H702</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -21023,7 +21025,7 @@
         <v>1</v>
       </c>
       <c r="I703" s="5" t="str">
-        <f>G703&amp;"."&amp;H703</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -21050,7 +21052,7 @@
         <v>514</v>
       </c>
       <c r="I704" s="5" t="str">
-        <f>G704&amp;"."&amp;H704</f>
+        <f t="shared" si="10"/>
         <v>1.?</v>
       </c>
     </row>
@@ -21077,7 +21079,7 @@
         <v>1</v>
       </c>
       <c r="I705" s="5" t="str">
-        <f>G705&amp;"."&amp;H705</f>
+        <f t="shared" si="10"/>
         <v>?.1</v>
       </c>
     </row>
@@ -21104,7 +21106,7 @@
         <v>1</v>
       </c>
       <c r="I706" s="5" t="str">
-        <f>G706&amp;"."&amp;H706</f>
+        <f t="shared" ref="I706:I769" si="11">G706&amp;"."&amp;H706</f>
         <v>?.1</v>
       </c>
     </row>
